--- a/input/20220120-study.characteristics_update.xlsx
+++ b/input/20220120-study.characteristics_update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\SR_prevalence_NTM\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77608BEA-B634-4C75-A18C-221846541AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96C8A0E-0556-414F-AB08-5705884CB5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{9BAFF895-4EE1-48C5-B0C9-C001584A386E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4603" uniqueCount="1454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4603" uniqueCount="1457">
   <si>
     <t>study_design</t>
   </si>
@@ -9595,42 +9595,6 @@
   <si>
     <t>1.2% 
 (over number of patients tested, unspecified)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">FEV1-pp, n =2020
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>90 - 716 (32.4)
-≥70 &amp; &lt;90 - 640 (28.9)
-≥40 &amp; &lt;70 - 630 (28.5)
-&lt;40 - 227 (10.3)</t>
-    </r>
   </si>
   <si>
     <t>25.2% 
@@ -22625,6 +22589,255 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Total
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1547/3294 (46.96)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adults
+763</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/1684 (45.31)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Child-Adolescents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+784/1610 (48.69)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Total
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1581/3379 (46.79)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adults
+788</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/1756 (44.87)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Child-Adolescents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+793/1623 (48.86)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Total
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1595/3422 (46.61)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Adults
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">811/1819 (55.4)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Child-Adolescents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+784/1603 (48.91)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FEV1-pp, n =2231
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>90 - 716 (32.4)
+≥70 &amp; &lt;90 - 640 (28.9)
+≥40 &amp; &lt;70 - 630 (28.5)
+&lt;40 - 227 (10.3)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -23167,8 +23380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF44B60-E10E-47AB-8924-A521697E3CBB}">
   <dimension ref="A1:AZ96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD94" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AR96" sqref="AR96"/>
+    <sheetView tabSelected="1" topLeftCell="M7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15"/>
@@ -23216,7 +23429,7 @@
   <sheetData>
     <row r="1" spans="1:52" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -23345,36 +23558,36 @@
         <v>78</v>
       </c>
       <c r="AR1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AS1" t="s">
         <v>1443</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>1444</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>1445</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>1446</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>1447</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>1448</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>1449</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>1450</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>1451</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="158.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>147</v>
@@ -23503,22 +23716,22 @@
         <v>46</v>
       </c>
       <c r="AR2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX2">
         <v>4687</v>
@@ -23532,10 +23745,10 @@
     </row>
     <row r="3" spans="1:52" ht="120">
       <c r="A3" s="22" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1360</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1361</v>
       </c>
       <c r="C3" s="2">
         <v>2021</v>
@@ -23544,13 +23757,13 @@
         <v>236</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F3" s="2">
         <v>485</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>31</v>
@@ -23559,34 +23772,34 @@
         <v>67</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>180</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>110</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>1410</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>1409</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>1362</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>1411</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>1363</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>322</v>
@@ -23607,76 +23820,76 @@
         <v>46</v>
       </c>
       <c r="Z3" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>1364</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="19" t="s">
+        <v>1376</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3" s="3" t="s">
         <v>1365</v>
       </c>
-      <c r="AB3" s="19" t="s">
-        <v>1377</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>1376</v>
-      </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AI3" s="18" t="s">
+        <v>1411</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
         <v>1367</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>1366</v>
-      </c>
-      <c r="AI3" s="18" t="s">
-        <v>1412</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AO3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP3" s="2" t="s">
         <v>1368</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>1370</v>
-      </c>
-      <c r="AO3" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>1369</v>
       </c>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS3" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AT3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX3">
         <v>485</v>
@@ -23690,7 +23903,7 @@
     </row>
     <row r="4" spans="1:52" ht="269.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>164</v>
@@ -23819,22 +24032,22 @@
         <v>46</v>
       </c>
       <c r="AR4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS4" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT4" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU4" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV4" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AX4">
         <v>10527</v>
@@ -23848,7 +24061,7 @@
     </row>
     <row r="5" spans="1:52" ht="240">
       <c r="A5" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>177</v>
@@ -23977,22 +24190,22 @@
         <v>191</v>
       </c>
       <c r="AR5" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS5" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT5" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU5" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV5" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW5" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AX5">
         <v>16153</v>
@@ -24006,7 +24219,7 @@
     </row>
     <row r="6" spans="1:52" ht="90">
       <c r="A6" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -24135,22 +24348,22 @@
         <v>46</v>
       </c>
       <c r="AR6" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS6" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT6" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU6" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV6" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW6" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX6">
         <v>42</v>
@@ -24164,7 +24377,7 @@
     </row>
     <row r="7" spans="1:52" ht="105">
       <c r="A7" s="17" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>127</v>
@@ -24203,7 +24416,7 @@
         <v>46</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>134</v>
@@ -24269,7 +24482,7 @@
         <v>46</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="AK7" s="2" t="s">
         <v>46</v>
@@ -24293,22 +24506,22 @@
         <v>146</v>
       </c>
       <c r="AR7" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS7" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT7" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU7" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV7" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW7" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX7">
         <v>117</v>
@@ -24322,7 +24535,7 @@
     </row>
     <row r="8" spans="1:52" ht="150">
       <c r="A8" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>223</v>
@@ -24451,22 +24664,22 @@
         <v>46</v>
       </c>
       <c r="AR8" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS8" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT8" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU8" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV8" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW8" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AX8">
         <v>64</v>
@@ -24480,7 +24693,7 @@
     </row>
     <row r="9" spans="1:52" ht="150">
       <c r="A9" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>749</v>
@@ -24570,7 +24783,7 @@
         <v>46</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="AF9" s="2" t="s">
         <v>46</v>
@@ -24609,22 +24822,22 @@
         <v>762</v>
       </c>
       <c r="AR9" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS9" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT9" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU9" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV9" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW9" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX9" t="s">
         <v>46</v>
@@ -24638,7 +24851,7 @@
     </row>
     <row r="10" spans="1:52" ht="165">
       <c r="A10" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>763</v>
@@ -24686,7 +24899,7 @@
         <v>46</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>772</v>
+        <v>1456</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>769</v>
@@ -24755,34 +24968,34 @@
         <v>46</v>
       </c>
       <c r="AN10" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="AO10" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="AP10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ10" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="AR10" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS10" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT10" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU10" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV10" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW10" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX10" t="s">
         <v>46</v>
@@ -24796,10 +25009,10 @@
     </row>
     <row r="11" spans="1:52" ht="180">
       <c r="A11" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C11" s="2">
         <v>2013</v>
@@ -24808,10 +25021,10 @@
         <v>750</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>777</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>778</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>752</v>
@@ -24823,34 +25036,34 @@
         <v>740</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>786</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>787</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>334</v>
@@ -24886,7 +25099,7 @@
         <v>46</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AF11" s="2" t="s">
         <v>46</v>
@@ -24913,34 +25126,34 @@
         <v>46</v>
       </c>
       <c r="AN11" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="AO11" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="AP11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ11" s="2" t="s">
-        <v>789</v>
-      </c>
       <c r="AR11" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS11" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT11" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU11" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV11" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW11" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX11" t="s">
         <v>46</v>
@@ -24954,10 +25167,10 @@
     </row>
     <row r="12" spans="1:52" ht="225">
       <c r="A12" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C12" s="2">
         <v>2015</v>
@@ -24966,10 +25179,10 @@
         <v>750</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>752</v>
@@ -24981,34 +25194,34 @@
         <v>740</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>797</v>
-      </c>
       <c r="S12" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>334</v>
@@ -25044,7 +25257,7 @@
         <v>46</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AF12" s="2" t="s">
         <v>46</v>
@@ -25071,34 +25284,34 @@
         <v>46</v>
       </c>
       <c r="AN12" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="AO12" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="AP12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ12" s="2" t="s">
-        <v>802</v>
-      </c>
       <c r="AR12" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS12" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT12" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU12" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV12" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW12" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX12" t="s">
         <v>46</v>
@@ -25112,10 +25325,10 @@
     </row>
     <row r="13" spans="1:52" ht="240">
       <c r="A13" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C13" s="2">
         <v>2016</v>
@@ -25124,10 +25337,10 @@
         <v>750</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>752</v>
@@ -25139,34 +25352,34 @@
         <v>740</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>812</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>334</v>
@@ -25202,7 +25415,7 @@
         <v>46</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AF13" s="2" t="s">
         <v>46</v>
@@ -25229,34 +25442,34 @@
         <v>46</v>
       </c>
       <c r="AN13" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="AO13" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="AP13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="AO13" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="AP13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ13" s="2" t="s">
-        <v>814</v>
-      </c>
       <c r="AR13" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS13" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT13" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU13" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV13" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW13" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX13" t="s">
         <v>46</v>
@@ -25270,10 +25483,10 @@
     </row>
     <row r="14" spans="1:52" ht="240">
       <c r="A14" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C14" s="2">
         <v>2017</v>
@@ -25282,10 +25495,10 @@
         <v>750</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>752</v>
@@ -25297,34 +25510,34 @@
         <v>740</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="R14" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="2" t="s">
+      <c r="S14" s="2" t="s">
         <v>822</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>823</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>334</v>
@@ -25360,7 +25573,7 @@
         <v>46</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AF14" s="2" t="s">
         <v>46</v>
@@ -25387,34 +25600,34 @@
         <v>46</v>
       </c>
       <c r="AN14" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="AP14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="AO14" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="AP14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ14" s="2" t="s">
-        <v>825</v>
-      </c>
       <c r="AR14" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS14" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT14" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU14" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV14" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW14" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX14" t="s">
         <v>46</v>
@@ -25428,10 +25641,10 @@
     </row>
     <row r="15" spans="1:52" ht="240">
       <c r="A15" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C15" s="2">
         <v>2018</v>
@@ -25440,10 +25653,10 @@
         <v>750</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>828</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>752</v>
@@ -25455,34 +25668,34 @@
         <v>740</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q15" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>831</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>832</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>334</v>
@@ -25518,7 +25731,7 @@
         <v>46</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AF15" s="2" t="s">
         <v>46</v>
@@ -25545,34 +25758,34 @@
         <v>46</v>
       </c>
       <c r="AN15" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="AO15" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="AP15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="AO15" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="AP15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ15" s="2" t="s">
-        <v>836</v>
-      </c>
       <c r="AR15" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS15" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT15" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU15" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV15" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW15" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX15" t="s">
         <v>46</v>
@@ -25586,10 +25799,10 @@
     </row>
     <row r="16" spans="1:52" ht="240">
       <c r="A16" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C16" s="2">
         <v>2019</v>
@@ -25598,10 +25811,10 @@
         <v>750</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>838</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>839</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>752</v>
@@ -25613,7 +25826,7 @@
         <v>740</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>46</v>
@@ -25622,25 +25835,25 @@
         <v>46</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="S16" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>845</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>334</v>
@@ -25676,7 +25889,7 @@
         <v>46</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AF16" s="2" t="s">
         <v>46</v>
@@ -25703,34 +25916,34 @@
         <v>46</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AO16" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="AP16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="AP16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ16" s="2" t="s">
-        <v>848</v>
-      </c>
       <c r="AR16" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS16" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT16" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU16" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV16" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW16" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX16" t="s">
         <v>46</v>
@@ -25744,10 +25957,10 @@
     </row>
     <row r="17" spans="1:52" ht="60">
       <c r="A17" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C17" s="2">
         <v>2001</v>
@@ -25756,13 +25969,13 @@
         <v>48</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F17" s="2">
         <v>214</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>31</v>
@@ -25777,31 +25990,31 @@
         <v>46</v>
       </c>
       <c r="L17" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" s="2" t="s">
         <v>1211</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>1212</v>
       </c>
       <c r="U17" s="2" t="s">
         <v>197</v>
@@ -25810,47 +26023,47 @@
         <v>45</v>
       </c>
       <c r="W17" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="X17" s="2" t="s">
         <v>1213</v>
       </c>
-      <c r="X17" s="2" t="s">
+      <c r="Y17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z17" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="Y17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z17" s="2" t="s">
+      <c r="AA17" s="2" t="s">
         <v>1215</v>
       </c>
-      <c r="AA17" s="2" t="s">
+      <c r="AB17" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="AB17" s="2" t="s">
+      <c r="AC17" s="2" t="s">
         <v>1217</v>
       </c>
-      <c r="AC17" s="2" t="s">
+      <c r="AD17" s="2" t="s">
         <v>1218</v>
       </c>
-      <c r="AD17" s="2" t="s">
+      <c r="AE17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH17" s="2" t="s">
         <v>1219</v>
       </c>
-      <c r="AE17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH17" s="2" t="s">
+      <c r="AI17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ17" s="2" t="s">
         <v>1220</v>
       </c>
-      <c r="AI17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ17" s="2" t="s">
-        <v>1221</v>
-      </c>
       <c r="AK17" s="2" t="s">
         <v>46</v>
       </c>
@@ -25873,22 +26086,22 @@
         <v>46</v>
       </c>
       <c r="AR17" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS17" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT17" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU17" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV17" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW17" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX17">
         <v>214</v>
@@ -25902,7 +26115,7 @@
     </row>
     <row r="18" spans="1:52" ht="270">
       <c r="A18" s="17" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>235</v>
@@ -25995,7 +26208,7 @@
         <v>253</v>
       </c>
       <c r="AF18" s="13" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="AG18" s="2" t="s">
         <v>255</v>
@@ -26004,7 +26217,7 @@
         <v>256</v>
       </c>
       <c r="AI18" s="14" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AJ18" s="2" t="s">
         <v>257</v>
@@ -26031,22 +26244,22 @@
         <v>261</v>
       </c>
       <c r="AR18" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS18" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AT18" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AU18" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AV18" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW18" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX18">
         <v>180</v>
@@ -26060,7 +26273,7 @@
     </row>
     <row r="19" spans="1:52" ht="180">
       <c r="A19" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>262</v>
@@ -26174,7 +26387,7 @@
         <v>46</v>
       </c>
       <c r="AM19" s="2" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="AN19" s="2" t="s">
         <v>46</v>
@@ -26189,22 +26402,22 @@
         <v>46</v>
       </c>
       <c r="AR19" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS19" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT19" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU19" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AV19" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW19" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX19" t="s">
         <v>46</v>
@@ -26218,10 +26431,10 @@
     </row>
     <row r="20" spans="1:52" ht="120">
       <c r="A20" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>46</v>
@@ -26245,40 +26458,40 @@
         <v>131</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="O20" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="M20" s="2" t="s">
+      <c r="P20" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="R20" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="Q20" s="2" t="s">
+      <c r="S20" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U20" s="2" t="s">
         <v>859</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>860</v>
       </c>
       <c r="V20" s="2" t="s">
         <v>46</v>
@@ -26308,7 +26521,7 @@
         <v>46</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AF20" s="2" t="s">
         <v>334</v>
@@ -26335,34 +26548,34 @@
         <v>46</v>
       </c>
       <c r="AN20" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="AO20" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="AP20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ20" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="AO20" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="AP20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ20" s="2" t="s">
-        <v>864</v>
-      </c>
       <c r="AR20" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS20" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT20" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU20" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV20" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW20" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX20" t="s">
         <v>46</v>
@@ -26376,10 +26589,10 @@
     </row>
     <row r="21" spans="1:52" ht="120">
       <c r="A21" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>46</v>
@@ -26403,40 +26616,40 @@
         <v>131</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N21" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="P21" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="O21" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="P21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="R21" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="R21" s="2" t="s">
-        <v>870</v>
-      </c>
       <c r="S21" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="V21" s="2" t="s">
         <v>46</v>
@@ -26466,7 +26679,7 @@
         <v>46</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AF21" s="2" t="s">
         <v>334</v>
@@ -26493,34 +26706,34 @@
         <v>46</v>
       </c>
       <c r="AN21" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="AO21" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="AO21" s="2" t="s">
+      <c r="AP21" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="AP21" s="2" t="s">
-        <v>874</v>
-      </c>
       <c r="AQ21" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AR21" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS21" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT21" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU21" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV21" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW21" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX21" t="s">
         <v>46</v>
@@ -26534,10 +26747,10 @@
     </row>
     <row r="22" spans="1:52" ht="165">
       <c r="A22" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>46</v>
@@ -26561,7 +26774,7 @@
         <v>131</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>46</v>
@@ -26570,31 +26783,31 @@
         <v>46</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N22" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="O22" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="P22" s="2" t="s">
-        <v>882</v>
-      </c>
       <c r="Q22" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="T22" s="2" t="s">
         <v>46</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="V22" s="2" t="s">
         <v>46</v>
@@ -26624,7 +26837,7 @@
         <v>46</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AF22" s="2" t="s">
         <v>334</v>
@@ -26651,34 +26864,34 @@
         <v>46</v>
       </c>
       <c r="AN22" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="AO22" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="AP22" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="AO22" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="AP22" s="2" t="s">
-        <v>879</v>
-      </c>
       <c r="AQ22" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AR22" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS22" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT22" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU22" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV22" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW22" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX22" t="s">
         <v>46</v>
@@ -26692,10 +26905,10 @@
     </row>
     <row r="23" spans="1:52" ht="210">
       <c r="A23" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>46</v>
@@ -26719,7 +26932,7 @@
         <v>131</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>46</v>
@@ -26728,31 +26941,31 @@
         <v>46</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N23" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="R23" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="R23" s="2" t="s">
+      <c r="S23" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="S23" s="2" t="s">
-        <v>894</v>
-      </c>
       <c r="T23" s="2" t="s">
         <v>46</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>46</v>
@@ -26782,7 +26995,7 @@
         <v>46</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AF23" s="2" t="s">
         <v>334</v>
@@ -26809,34 +27022,34 @@
         <v>46</v>
       </c>
       <c r="AN23" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AO23" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AP23" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="AQ23" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="AQ23" s="2" t="s">
-        <v>899</v>
-      </c>
       <c r="AR23" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS23" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT23" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU23" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV23" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW23" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX23" t="s">
         <v>46</v>
@@ -26850,10 +27063,10 @@
     </row>
     <row r="24" spans="1:52" ht="195">
       <c r="A24" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>46</v>
@@ -26877,7 +27090,7 @@
         <v>131</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>46</v>
@@ -26886,31 +27099,31 @@
         <v>46</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N24" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="P24" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="P24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="R24" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="Q24" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="R24" s="2" t="s">
+      <c r="S24" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="S24" s="2" t="s">
-        <v>906</v>
-      </c>
       <c r="T24" s="2" t="s">
         <v>46</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>46</v>
@@ -26940,7 +27153,7 @@
         <v>46</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AF24" s="2" t="s">
         <v>334</v>
@@ -26967,34 +27180,34 @@
         <v>46</v>
       </c>
       <c r="AN24" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AO24" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="AP24" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="AP24" s="2" t="s">
+      <c r="AQ24" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="AQ24" s="2" t="s">
-        <v>911</v>
-      </c>
       <c r="AR24" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS24" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT24" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU24" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV24" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW24" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX24" t="s">
         <v>46</v>
@@ -27008,10 +27221,10 @@
     </row>
     <row r="25" spans="1:52" ht="180">
       <c r="A25" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>46</v>
@@ -27035,7 +27248,7 @@
         <v>131</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>46</v>
@@ -27044,31 +27257,31 @@
         <v>46</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N25" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="R25" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="Q25" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="R25" s="2" t="s">
+      <c r="S25" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="S25" s="2" t="s">
-        <v>919</v>
-      </c>
       <c r="T25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>46</v>
@@ -27098,7 +27311,7 @@
         <v>46</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AF25" s="2" t="s">
         <v>334</v>
@@ -27125,34 +27338,34 @@
         <v>46</v>
       </c>
       <c r="AN25" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AO25" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="AP25" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="AP25" s="2" t="s">
+      <c r="AQ25" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="AQ25" s="2" t="s">
-        <v>924</v>
-      </c>
       <c r="AR25" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS25" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT25" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU25" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV25" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW25" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX25" t="s">
         <v>46</v>
@@ -27166,10 +27379,10 @@
     </row>
     <row r="26" spans="1:52" ht="150">
       <c r="A26" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>46</v>
@@ -27193,7 +27406,7 @@
         <v>131</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>46</v>
@@ -27202,31 +27415,31 @@
         <v>46</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N26" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="Q26" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="R26" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="Q26" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="R26" s="2" t="s">
+      <c r="S26" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="S26" s="2" t="s">
-        <v>932</v>
-      </c>
       <c r="T26" s="2" t="s">
         <v>46</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="V26" s="2" t="s">
         <v>46</v>
@@ -27256,7 +27469,7 @@
         <v>46</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AF26" s="2" t="s">
         <v>334</v>
@@ -27283,34 +27496,34 @@
         <v>46</v>
       </c>
       <c r="AN26" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AO26" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="AP26" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="AP26" s="2" t="s">
+      <c r="AQ26" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="AQ26" s="2" t="s">
-        <v>937</v>
-      </c>
       <c r="AR26" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS26" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT26" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU26" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV26" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW26" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX26" t="s">
         <v>46</v>
@@ -27324,10 +27537,10 @@
     </row>
     <row r="27" spans="1:52" ht="165">
       <c r="A27" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>46</v>
@@ -27351,7 +27564,7 @@
         <v>131</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>46</v>
@@ -27360,31 +27573,31 @@
         <v>46</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N27" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="R27" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="O27" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="R27" s="2" t="s">
+      <c r="S27" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="S27" s="2" t="s">
-        <v>945</v>
-      </c>
       <c r="T27" s="2" t="s">
         <v>46</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="V27" s="2" t="s">
         <v>46</v>
@@ -27414,7 +27627,7 @@
         <v>46</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AF27" s="2" t="s">
         <v>334</v>
@@ -27441,34 +27654,34 @@
         <v>46</v>
       </c>
       <c r="AN27" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="AO27" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="AP27" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="AQ27" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="AO27" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="AP27" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="AQ27" s="2" t="s">
-        <v>951</v>
-      </c>
       <c r="AR27" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS27" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT27" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU27" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV27" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW27" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX27" t="s">
         <v>46</v>
@@ -27482,7 +27695,7 @@
     </row>
     <row r="28" spans="1:52" ht="330">
       <c r="A28" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>276</v>
@@ -27611,22 +27824,22 @@
         <v>46</v>
       </c>
       <c r="AR28" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS28" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AT28" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU28" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AV28" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW28" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX28">
         <v>44</v>
@@ -27640,10 +27853,10 @@
     </row>
     <row r="29" spans="1:52" ht="105">
       <c r="A29" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>46</v>
@@ -27652,7 +27865,7 @@
         <v>750</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F29" s="2">
         <v>3913</v>
@@ -27667,34 +27880,34 @@
         <v>633</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N29" s="2" t="s">
+      <c r="P29" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="O29" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="P29" s="2" t="s">
+      <c r="Q29" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="R29" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="S29" s="2" t="s">
         <v>963</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>964</v>
       </c>
       <c r="T29" s="2" t="s">
         <v>334</v>
@@ -27730,7 +27943,7 @@
         <v>46</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AF29" s="2" t="s">
         <v>46</v>
@@ -27760,7 +27973,7 @@
         <v>46</v>
       </c>
       <c r="AO29" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="AP29" s="2" t="s">
         <v>46</v>
@@ -27769,22 +27982,22 @@
         <v>46</v>
       </c>
       <c r="AR29" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS29" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT29" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU29" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV29" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW29" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX29" t="s">
         <v>46</v>
@@ -27798,10 +28011,10 @@
     </row>
     <row r="30" spans="1:52" ht="195">
       <c r="A30" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C30" s="2">
         <v>2014</v>
@@ -27810,7 +28023,7 @@
         <v>750</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F30" s="2">
         <v>3913</v>
@@ -27825,7 +28038,7 @@
         <v>633</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>46</v>
@@ -27837,22 +28050,22 @@
         <v>46</v>
       </c>
       <c r="N30" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="P30" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="Q30" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="R30" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="Q30" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>970</v>
-      </c>
       <c r="S30" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="T30" s="2" t="s">
         <v>334</v>
@@ -27888,7 +28101,7 @@
         <v>46</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AF30" s="2" t="s">
         <v>46</v>
@@ -27918,7 +28131,7 @@
         <v>46</v>
       </c>
       <c r="AO30" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AP30" s="2" t="s">
         <v>46</v>
@@ -27927,22 +28140,22 @@
         <v>46</v>
       </c>
       <c r="AR30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX30" t="s">
         <v>46</v>
@@ -27956,10 +28169,10 @@
     </row>
     <row r="31" spans="1:52" ht="195">
       <c r="A31" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C31" s="2">
         <v>2015</v>
@@ -27968,7 +28181,7 @@
         <v>750</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F31" s="2">
         <v>4077</v>
@@ -27983,7 +28196,7 @@
         <v>633</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>46</v>
@@ -27995,28 +28208,28 @@
         <v>46</v>
       </c>
       <c r="N31" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="P31" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="Q31" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="Q31" s="2" t="s">
-        <v>977</v>
-      </c>
       <c r="R31" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="T31" s="2" t="s">
         <v>334</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V31" s="2" t="s">
         <v>45</v>
@@ -28046,7 +28259,7 @@
         <v>46</v>
       </c>
       <c r="AE31" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AF31" s="2" t="s">
         <v>46</v>
@@ -28076,7 +28289,7 @@
         <v>46</v>
       </c>
       <c r="AO31" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AP31" s="2" t="s">
         <v>46</v>
@@ -28085,22 +28298,22 @@
         <v>46</v>
       </c>
       <c r="AR31" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS31" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT31" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU31" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV31" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW31" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX31" t="s">
         <v>46</v>
@@ -28114,10 +28327,10 @@
     </row>
     <row r="32" spans="1:52" ht="120">
       <c r="A32" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C32" s="2">
         <v>2016</v>
@@ -28126,7 +28339,7 @@
         <v>750</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F32" s="2">
         <v>4077</v>
@@ -28141,7 +28354,7 @@
         <v>633</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>46</v>
@@ -28153,28 +28366,28 @@
         <v>46</v>
       </c>
       <c r="N32" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="O32" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="P32" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="P32" s="2" t="s">
+      <c r="Q32" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="R32" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="S32" s="2" t="s">
         <v>986</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>987</v>
       </c>
       <c r="T32" s="2" t="s">
         <v>334</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V32" s="2" t="s">
         <v>45</v>
@@ -28240,25 +28453,25 @@
         <v>46</v>
       </c>
       <c r="AQ32" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AR32" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS32" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT32" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU32" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV32" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW32" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX32" t="s">
         <v>46</v>
@@ -28272,10 +28485,10 @@
     </row>
     <row r="33" spans="1:52" ht="135">
       <c r="A33" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C33" s="2">
         <v>2017</v>
@@ -28284,7 +28497,7 @@
         <v>750</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F33" s="2">
         <v>4192</v>
@@ -28299,7 +28512,7 @@
         <v>633</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>46</v>
@@ -28311,28 +28524,28 @@
         <v>46</v>
       </c>
       <c r="N33" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="O33" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="P33" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="P33" s="2" t="s">
+      <c r="Q33" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="R33" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="S33" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>995</v>
       </c>
       <c r="T33" s="2" t="s">
         <v>334</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V33" s="2" t="s">
         <v>45</v>
@@ -28398,25 +28611,25 @@
         <v>46</v>
       </c>
       <c r="AQ33" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AR33" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS33" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT33" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU33" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV33" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW33" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX33" t="s">
         <v>46</v>
@@ -28430,10 +28643,10 @@
     </row>
     <row r="34" spans="1:52" ht="135">
       <c r="A34" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C34" s="2">
         <v>2017</v>
@@ -28442,7 +28655,7 @@
         <v>750</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F34" s="2">
         <v>4246</v>
@@ -28457,7 +28670,7 @@
         <v>633</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>46</v>
@@ -28469,28 +28682,28 @@
         <v>46</v>
       </c>
       <c r="N34" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="S34" s="2" t="s">
         <v>1002</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>1003</v>
       </c>
       <c r="T34" s="2" t="s">
         <v>334</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V34" s="2" t="s">
         <v>45</v>
@@ -28556,25 +28769,25 @@
         <v>46</v>
       </c>
       <c r="AQ34" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AR34" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS34" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT34" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU34" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV34" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW34" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX34" t="s">
         <v>46</v>
@@ -28588,10 +28801,10 @@
     </row>
     <row r="35" spans="1:52" ht="135">
       <c r="A35" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C35" s="2">
         <v>2018</v>
@@ -28600,7 +28813,7 @@
         <v>750</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F35" s="2">
         <v>4309</v>
@@ -28615,7 +28828,7 @@
         <v>633</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>46</v>
@@ -28627,28 +28840,28 @@
         <v>46</v>
       </c>
       <c r="N35" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="O35" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="P35" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="Q35" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="R35" s="2" t="s">
         <v>1008</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="S35" s="2" t="s">
         <v>1010</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>1011</v>
       </c>
       <c r="T35" s="2" t="s">
         <v>334</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V35" s="2" t="s">
         <v>45</v>
@@ -28714,25 +28927,25 @@
         <v>46</v>
       </c>
       <c r="AQ35" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AR35" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS35" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT35" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU35" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV35" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW35" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX35" t="s">
         <v>46</v>
@@ -28746,10 +28959,10 @@
     </row>
     <row r="36" spans="1:52" ht="135">
       <c r="A36" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C36" s="2">
         <v>2019</v>
@@ -28758,7 +28971,7 @@
         <v>750</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F36" s="2">
         <v>4371</v>
@@ -28773,7 +28986,7 @@
         <v>633</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>46</v>
@@ -28785,28 +28998,28 @@
         <v>46</v>
       </c>
       <c r="N36" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="O36" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="P36" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="Q36" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="R36" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="S36" s="2" t="s">
         <v>1018</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>1019</v>
       </c>
       <c r="T36" s="2" t="s">
         <v>334</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V36" s="2" t="s">
         <v>45</v>
@@ -28872,25 +29085,25 @@
         <v>46</v>
       </c>
       <c r="AQ36" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AR36" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS36" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT36" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU36" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV36" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW36" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX36" t="s">
         <v>46</v>
@@ -28904,10 +29117,10 @@
     </row>
     <row r="37" spans="1:52" ht="150">
       <c r="A37" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C37" s="2">
         <v>2020</v>
@@ -28916,7 +29129,7 @@
         <v>750</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F37" s="2">
         <v>4344</v>
@@ -28931,7 +29144,7 @@
         <v>633</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>46</v>
@@ -28943,28 +29156,28 @@
         <v>46</v>
       </c>
       <c r="N37" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="O37" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="P37" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="R37" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="P37" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="Q37" s="2" t="s">
+      <c r="S37" s="2" t="s">
         <v>1026</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>1027</v>
       </c>
       <c r="T37" s="2" t="s">
         <v>334</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V37" s="2" t="s">
         <v>45</v>
@@ -29030,25 +29243,25 @@
         <v>46</v>
       </c>
       <c r="AQ37" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AR37" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS37" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT37" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU37" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV37" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW37" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX37" t="s">
         <v>46</v>
@@ -29062,7 +29275,7 @@
     </row>
     <row r="38" spans="1:52" ht="150">
       <c r="A38" s="17" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>298</v>
@@ -29191,22 +29404,22 @@
         <v>46</v>
       </c>
       <c r="AR38" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS38" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AT38" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU38" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV38" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW38" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX38">
         <v>129</v>
@@ -29220,7 +29433,7 @@
     </row>
     <row r="39" spans="1:52" ht="90">
       <c r="A39" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>310</v>
@@ -29349,22 +29562,22 @@
         <v>333</v>
       </c>
       <c r="AR39" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS39" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AT39" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU39" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV39" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW39" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX39">
         <v>401</v>
@@ -29378,10 +29591,10 @@
     </row>
     <row r="40" spans="1:52" ht="150">
       <c r="A40" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>46</v>
@@ -29390,7 +29603,7 @@
         <v>750</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F40" s="2">
         <v>31932</v>
@@ -29402,37 +29615,37 @@
         <v>31</v>
       </c>
       <c r="I40" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N40" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="N40" s="2" t="s">
+      <c r="O40" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="R40" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="S40" s="6" t="s">
         <v>1037</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q40" s="6" t="s">
-        <v>1039</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="S40" s="6" t="s">
-        <v>1038</v>
       </c>
       <c r="T40" s="2" t="s">
         <v>46</v>
@@ -29468,7 +29681,7 @@
         <v>46</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AF40" s="2" t="s">
         <v>46</v>
@@ -29501,28 +29714,28 @@
         <v>46</v>
       </c>
       <c r="AP40" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AQ40" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AR40" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS40" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT40" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU40" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV40" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW40" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX40" t="s">
         <v>46</v>
@@ -29536,10 +29749,10 @@
     </row>
     <row r="41" spans="1:52" ht="150">
       <c r="A41" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C41" s="2">
         <v>2017</v>
@@ -29548,7 +29761,7 @@
         <v>750</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F41" s="2">
         <v>26700</v>
@@ -29560,10 +29773,10 @@
         <v>31</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>46</v>
@@ -29572,25 +29785,25 @@
         <v>46</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="N41" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="O41" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="P41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="R41" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="P41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q41" s="6" t="s">
-        <v>1044</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>1043</v>
-      </c>
       <c r="S41" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="T41" s="2" t="s">
         <v>46</v>
@@ -29626,7 +29839,7 @@
         <v>46</v>
       </c>
       <c r="AE41" s="12" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AF41" s="2" t="s">
         <v>46</v>
@@ -29659,28 +29872,28 @@
         <v>46</v>
       </c>
       <c r="AP41" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="AQ41" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AR41" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS41" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT41" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU41" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV41" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW41" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX41" t="s">
         <v>46</v>
@@ -29694,10 +29907,10 @@
     </row>
     <row r="42" spans="1:52" ht="150">
       <c r="A42" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C42" s="2">
         <v>2017</v>
@@ -29706,7 +29919,7 @@
         <v>750</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F42" s="2">
         <v>27686</v>
@@ -29718,7 +29931,7 @@
         <v>31</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>46</v>
@@ -29730,25 +29943,25 @@
         <v>46</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="N42" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="O42" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="P42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="R42" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="P42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q42" s="6" t="s">
+      <c r="S42" s="6" t="s">
         <v>1052</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="S42" s="6" t="s">
-        <v>1053</v>
       </c>
       <c r="T42" s="2" t="s">
         <v>46</v>
@@ -29784,7 +29997,7 @@
         <v>46</v>
       </c>
       <c r="AE42" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AF42" s="2" t="s">
         <v>46</v>
@@ -29817,28 +30030,28 @@
         <v>46</v>
       </c>
       <c r="AP42" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AQ42" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AR42" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS42" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT42" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU42" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV42" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW42" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX42" t="s">
         <v>46</v>
@@ -29852,10 +30065,10 @@
     </row>
     <row r="43" spans="1:52" ht="150">
       <c r="A43" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C43" s="2">
         <v>2016</v>
@@ -29864,7 +30077,7 @@
         <v>750</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F43" s="2">
         <v>28596</v>
@@ -29876,7 +30089,7 @@
         <v>31</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>46</v>
@@ -29888,25 +30101,25 @@
         <v>46</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="N43" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="R43" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="O43" s="2" t="s">
-        <v>1061</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>1064</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>1063</v>
-      </c>
       <c r="S43" s="6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="T43" s="2" t="s">
         <v>46</v>
@@ -29942,7 +30155,7 @@
         <v>46</v>
       </c>
       <c r="AE43" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AF43" s="2" t="s">
         <v>46</v>
@@ -29975,28 +30188,28 @@
         <v>46</v>
       </c>
       <c r="AP43" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AQ43" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="AQ43" s="2" t="s">
-        <v>1068</v>
-      </c>
       <c r="AR43" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS43" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT43" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU43" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV43" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW43" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX43" t="s">
         <v>46</v>
@@ -30010,10 +30223,10 @@
     </row>
     <row r="44" spans="1:52" ht="150">
       <c r="A44" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C44" s="2">
         <v>2016</v>
@@ -30022,7 +30235,7 @@
         <v>750</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F44" s="2">
         <v>28961</v>
@@ -30034,37 +30247,37 @@
         <v>31</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J44" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="O44" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="K44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="N44" s="2" t="s">
+      <c r="P44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="R44" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="O44" s="2" t="s">
-        <v>1071</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q44" s="6" t="s">
-        <v>1074</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>1073</v>
-      </c>
       <c r="S44" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="T44" s="2" t="s">
         <v>46</v>
@@ -30100,7 +30313,7 @@
         <v>46</v>
       </c>
       <c r="AE44" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AF44" s="2" t="s">
         <v>46</v>
@@ -30133,28 +30346,28 @@
         <v>46</v>
       </c>
       <c r="AP44" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AQ44" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="AQ44" s="2" t="s">
-        <v>1078</v>
-      </c>
       <c r="AR44" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS44" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT44" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU44" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV44" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW44" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX44" t="s">
         <v>46</v>
@@ -30168,10 +30381,10 @@
     </row>
     <row r="45" spans="1:52" ht="150">
       <c r="A45" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C45" s="2">
         <v>2017</v>
@@ -30180,7 +30393,7 @@
         <v>750</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F45" s="2">
         <v>31763</v>
@@ -30192,7 +30405,7 @@
         <v>31</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>46</v>
@@ -30204,25 +30417,25 @@
         <v>46</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="N45" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="R45" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="O45" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q45" s="6" t="s">
-        <v>1083</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>1082</v>
-      </c>
       <c r="S45" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="T45" s="2" t="s">
         <v>46</v>
@@ -30258,7 +30471,7 @@
         <v>46</v>
       </c>
       <c r="AE45" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AF45" s="2" t="s">
         <v>46</v>
@@ -30291,28 +30504,28 @@
         <v>46</v>
       </c>
       <c r="AP45" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AQ45" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="AQ45" s="2" t="s">
-        <v>1087</v>
-      </c>
       <c r="AR45" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS45" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT45" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU45" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV45" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW45" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX45" t="s">
         <v>46</v>
@@ -30326,10 +30539,10 @@
     </row>
     <row r="46" spans="1:52" ht="150">
       <c r="A46" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C46" s="2">
         <v>2018</v>
@@ -30338,7 +30551,7 @@
         <v>750</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F46" s="2">
         <v>25464</v>
@@ -30350,7 +30563,7 @@
         <v>31</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>46</v>
@@ -30362,25 +30575,25 @@
         <v>46</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="N46" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="R46" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="O46" s="2" t="s">
-        <v>1089</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q46" s="6" t="s">
+      <c r="S46" s="6" t="s">
         <v>1092</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="S46" s="6" t="s">
-        <v>1093</v>
       </c>
       <c r="T46" s="2" t="s">
         <v>46</v>
@@ -30416,7 +30629,7 @@
         <v>46</v>
       </c>
       <c r="AE46" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AF46" s="2" t="s">
         <v>46</v>
@@ -30449,28 +30662,28 @@
         <v>46</v>
       </c>
       <c r="AP46" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AQ46" s="2" t="s">
         <v>1095</v>
       </c>
-      <c r="AQ46" s="2" t="s">
-        <v>1096</v>
-      </c>
       <c r="AR46" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS46" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT46" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU46" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV46" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW46" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX46" t="s">
         <v>46</v>
@@ -30484,10 +30697,10 @@
     </row>
     <row r="47" spans="1:52" ht="150">
       <c r="A47" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C47" s="2">
         <v>2019</v>
@@ -30496,7 +30709,7 @@
         <v>750</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F47" s="2">
         <v>39667</v>
@@ -30508,7 +30721,7 @@
         <v>31</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>46</v>
@@ -30520,25 +30733,25 @@
         <v>46</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="N47" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="R47" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="O47" s="2" t="s">
-        <v>1098</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>1101</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>1100</v>
-      </c>
       <c r="S47" s="6" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="T47" s="2" t="s">
         <v>46</v>
@@ -30574,7 +30787,7 @@
         <v>46</v>
       </c>
       <c r="AE47" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AF47" s="2" t="s">
         <v>46</v>
@@ -30607,28 +30820,28 @@
         <v>46</v>
       </c>
       <c r="AP47" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AQ47" s="2" t="s">
         <v>1104</v>
       </c>
-      <c r="AQ47" s="2" t="s">
-        <v>1105</v>
-      </c>
       <c r="AR47" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS47" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT47" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU47" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV47" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW47" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX47" t="s">
         <v>46</v>
@@ -30642,10 +30855,10 @@
     </row>
     <row r="48" spans="1:52" ht="150">
       <c r="A48" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C48" s="2">
         <v>2018</v>
@@ -30654,7 +30867,7 @@
         <v>750</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F48" s="2">
         <v>30957</v>
@@ -30666,7 +30879,7 @@
         <v>31</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>46</v>
@@ -30678,25 +30891,25 @@
         <v>46</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="N48" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="R48" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="O48" s="2" t="s">
-        <v>1107</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>1110</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>1109</v>
-      </c>
       <c r="S48" s="6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="T48" s="2" t="s">
         <v>46</v>
@@ -30732,7 +30945,7 @@
         <v>46</v>
       </c>
       <c r="AE48" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="AF48" s="2" t="s">
         <v>46</v>
@@ -30765,28 +30978,28 @@
         <v>46</v>
       </c>
       <c r="AP48" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AQ48" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="AQ48" s="2" t="s">
-        <v>1114</v>
-      </c>
       <c r="AR48" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS48" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT48" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU48" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV48" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW48" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX48" t="s">
         <v>46</v>
@@ -30800,7 +31013,7 @@
     </row>
     <row r="49" spans="1:52" ht="90" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>47</v>
@@ -30929,22 +31142,22 @@
         <v>46</v>
       </c>
       <c r="AR49" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS49" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT49" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU49" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV49" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW49" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX49">
         <v>431</v>
@@ -30958,7 +31171,7 @@
     </row>
     <row r="50" spans="1:52" ht="75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>335</v>
@@ -31087,22 +31300,22 @@
         <v>46</v>
       </c>
       <c r="AR50" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS50" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT50" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU50" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV50" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW50" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX50">
         <v>829</v>
@@ -31116,7 +31329,7 @@
     </row>
     <row r="51" spans="1:52" ht="120" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>350</v>
@@ -31155,7 +31368,7 @@
         <v>46</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>354</v>
@@ -31245,22 +31458,22 @@
         <v>46</v>
       </c>
       <c r="AR51" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS51" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AT51" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU51" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV51" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW51" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX51">
         <v>106</v>
@@ -31274,7 +31487,7 @@
     </row>
     <row r="52" spans="1:52" ht="210" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>369</v>
@@ -31403,22 +31616,22 @@
         <v>46</v>
       </c>
       <c r="AR52" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS52" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT52" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU52" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV52" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW52" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX52">
         <v>92</v>
@@ -31432,7 +31645,7 @@
     </row>
     <row r="53" spans="1:52" ht="120" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>385</v>
@@ -31561,22 +31774,22 @@
         <v>46</v>
       </c>
       <c r="AR53" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS53" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT53" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU53" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV53" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW53" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX53">
         <v>5333</v>
@@ -31590,7 +31803,7 @@
     </row>
     <row r="54" spans="1:52" ht="180" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>406</v>
@@ -31719,22 +31932,22 @@
         <v>46</v>
       </c>
       <c r="AR54" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS54" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AT54" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU54" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV54" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW54" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX54">
         <v>28</v>
@@ -31748,7 +31961,7 @@
     </row>
     <row r="55" spans="1:52" ht="180">
       <c r="A55" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>437</v>
@@ -31877,22 +32090,22 @@
         <v>46</v>
       </c>
       <c r="AR55" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS55" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT55" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU55" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AV55" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW55" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX55" t="s">
         <v>46</v>
@@ -31906,7 +32119,7 @@
     </row>
     <row r="56" spans="1:52" ht="75">
       <c r="A56" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>419</v>
@@ -32035,22 +32248,22 @@
         <v>46</v>
       </c>
       <c r="AR56" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS56" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT56" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU56" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV56" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW56" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AX56">
         <v>185</v>
@@ -32064,10 +32277,10 @@
     </row>
     <row r="57" spans="1:52" ht="225">
       <c r="A57" s="21" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>1382</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>1383</v>
       </c>
       <c r="C57" s="2">
         <v>2021</v>
@@ -32076,16 +32289,16 @@
         <v>48</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F57" s="23">
         <v>171</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>115</v>
@@ -32097,13 +32310,13 @@
         <v>658</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>110</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="O57" s="24">
         <v>0.54900000000000004</v>
@@ -32112,64 +32325,64 @@
         <v>46</v>
       </c>
       <c r="Q57" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R57" s="2" t="s">
         <v>1424</v>
       </c>
-      <c r="R57" s="2" t="s">
+      <c r="S57" s="2" t="s">
         <v>1425</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>1426</v>
       </c>
       <c r="T57" s="2" t="s">
         <v>322</v>
       </c>
       <c r="U57" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="V57" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="W57" s="2" t="s">
         <v>1386</v>
       </c>
-      <c r="V57" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="W57" s="2" t="s">
+      <c r="X57" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="X57" s="2" t="s">
+      <c r="Y57" s="2" t="s">
         <v>1388</v>
-      </c>
-      <c r="Y57" s="2" t="s">
-        <v>1389</v>
       </c>
       <c r="Z57" s="2" t="s">
         <v>110</v>
       </c>
       <c r="AA57" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="AB57" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="AC57" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AD57" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="AE57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH57" s="18" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AI57" s="18" t="s">
+        <v>1430</v>
+      </c>
+      <c r="AJ57" s="2" t="s">
         <v>1390</v>
-      </c>
-      <c r="AB57" s="2" t="s">
-        <v>1427</v>
-      </c>
-      <c r="AC57" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="AD57" s="2" t="s">
-        <v>1429</v>
-      </c>
-      <c r="AE57" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF57" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG57" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH57" s="18" t="s">
-        <v>1430</v>
-      </c>
-      <c r="AI57" s="18" t="s">
-        <v>1431</v>
-      </c>
-      <c r="AJ57" s="2" t="s">
-        <v>1391</v>
       </c>
       <c r="AK57" s="2" t="s">
         <v>46</v>
@@ -32184,31 +32397,31 @@
         <v>0</v>
       </c>
       <c r="AO57" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AP57" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AQ57" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="AP57" s="2" t="s">
-        <v>1375</v>
-      </c>
-      <c r="AQ57" s="2" t="s">
-        <v>1433</v>
-      </c>
       <c r="AR57" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS57" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AT57" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU57" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV57" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW57" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX57">
         <v>171</v>
@@ -32222,10 +32435,10 @@
     </row>
     <row r="58" spans="1:52" ht="165">
       <c r="A58" s="21" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C58" s="2">
         <v>2021</v>
@@ -32240,7 +32453,7 @@
         <v>567</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>31</v>
@@ -32249,37 +32462,37 @@
         <v>29</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>658</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>110</v>
       </c>
       <c r="N58" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="O58" s="24" t="s">
+        <v>1435</v>
+      </c>
+      <c r="P58" s="2" t="s">
         <v>1395</v>
       </c>
-      <c r="O58" s="24" t="s">
+      <c r="Q58" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="S58" s="2" t="s">
         <v>1436</v>
       </c>
-      <c r="P58" s="2" t="s">
-        <v>1396</v>
-      </c>
-      <c r="Q58" s="2" t="s">
+      <c r="T58" s="2" t="s">
         <v>1397</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>1388</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>1398</v>
       </c>
       <c r="U58" s="2" t="s">
         <v>746</v>
@@ -32288,10 +32501,10 @@
         <v>285</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="X58" s="2" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="Y58" s="2" t="s">
         <v>46</v>
@@ -32300,34 +32513,34 @@
         <v>110</v>
       </c>
       <c r="AA58" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="AB58" s="2" t="s">
         <v>1400</v>
       </c>
-      <c r="AB58" s="2" t="s">
+      <c r="AC58" s="2" t="s">
         <v>1401</v>
       </c>
-      <c r="AC58" s="2" t="s">
+      <c r="AD58" s="2" t="s">
         <v>1402</v>
       </c>
-      <c r="AD58" s="2" t="s">
+      <c r="AE58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH58" s="3" t="s">
         <v>1403</v>
       </c>
-      <c r="AE58" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF58" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG58" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH58" s="3" t="s">
+      <c r="AI58" s="18" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AJ58" s="2" t="s">
         <v>1404</v>
-      </c>
-      <c r="AI58" s="18" t="s">
-        <v>1438</v>
-      </c>
-      <c r="AJ58" s="2" t="s">
-        <v>1405</v>
       </c>
       <c r="AK58" s="2" t="s">
         <v>46</v>
@@ -32342,31 +32555,31 @@
         <v>334</v>
       </c>
       <c r="AO58" s="2" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="AP58" s="2" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="AQ58" s="2" t="s">
         <v>334</v>
       </c>
       <c r="AR58" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS58" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AT58" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU58" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV58" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW58" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX58">
         <v>567</v>
@@ -32380,7 +32593,7 @@
     </row>
     <row r="59" spans="1:52" ht="195">
       <c r="A59" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>82</v>
@@ -32467,7 +32680,7 @@
         <v>211</v>
       </c>
       <c r="AD59" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AE59" s="2" t="s">
         <v>46</v>
@@ -32509,22 +32722,22 @@
         <v>46</v>
       </c>
       <c r="AR59" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS59" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT59" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU59" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV59" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW59" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX59">
         <v>87</v>
@@ -32538,7 +32751,7 @@
     </row>
     <row r="60" spans="1:52" ht="135">
       <c r="A60" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>446</v>
@@ -32667,22 +32880,22 @@
         <v>463</v>
       </c>
       <c r="AR60" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS60" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT60" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU60" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV60" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW60" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX60">
         <v>30896</v>
@@ -32696,7 +32909,7 @@
     </row>
     <row r="61" spans="1:52" ht="210">
       <c r="A61" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>464</v>
@@ -32825,22 +33038,22 @@
         <v>46</v>
       </c>
       <c r="AR61" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS61" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT61" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU61" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AV61" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW61" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX61">
         <v>91</v>
@@ -32854,7 +33067,7 @@
     </row>
     <row r="62" spans="1:52" ht="150">
       <c r="A62" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>483</v>
@@ -32983,22 +33196,22 @@
         <v>502</v>
       </c>
       <c r="AR62" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS62" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AT62" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU62" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV62" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW62" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX62">
         <v>186</v>
@@ -33012,46 +33225,46 @@
     </row>
     <row r="63" spans="1:52" ht="105">
       <c r="A63" s="17" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C63" s="2">
         <v>1990</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>1223</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>1224</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>1225</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I63" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>1226</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="K63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L63" s="2" t="s">
         <v>1227</v>
       </c>
-      <c r="K63" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L63" s="2" t="s">
+      <c r="M63" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="M63" s="2" t="s">
-        <v>1229</v>
-      </c>
       <c r="N63" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="O63" s="2" t="str">
         <f>$N$60</f>
@@ -33079,7 +33292,7 @@
         <v>46</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="V63" s="2" t="s">
         <v>45</v>
@@ -33094,16 +33307,16 @@
         <v>46</v>
       </c>
       <c r="Z63" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AA63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC63" s="2" t="s">
         <v>1233</v>
-      </c>
-      <c r="AA63" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB63" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC63" s="2" t="s">
-        <v>1234</v>
       </c>
       <c r="AD63" s="2" t="s">
         <v>46</v>
@@ -33115,29 +33328,29 @@
         <v>46</v>
       </c>
       <c r="AG63" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="AH63" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI63" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN63" s="2" t="s">
         <v>1235</v>
       </c>
-      <c r="AH63" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI63" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ63" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK63" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL63" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM63" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN63" s="2" t="s">
-        <v>1236</v>
-      </c>
       <c r="AO63" s="2" t="s">
         <v>46</v>
       </c>
@@ -33148,22 +33361,22 @@
         <v>46</v>
       </c>
       <c r="AR63" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS63" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT63" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU63" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV63" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW63" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX63" t="s">
         <v>46</v>
@@ -33177,7 +33390,7 @@
     </row>
     <row r="64" spans="1:52" ht="120">
       <c r="A64" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>99</v>
@@ -33306,22 +33519,22 @@
         <v>46</v>
       </c>
       <c r="AR64" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS64" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AT64" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU64" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV64" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW64" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX64">
         <v>139</v>
@@ -33335,7 +33548,7 @@
     </row>
     <row r="65" spans="1:52" ht="150">
       <c r="A65" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>503</v>
@@ -33464,22 +33677,22 @@
         <v>46</v>
       </c>
       <c r="AR65" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS65" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT65" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU65" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV65" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW65" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX65">
         <v>37</v>
@@ -33493,7 +33706,7 @@
     </row>
     <row r="66" spans="1:52" ht="105">
       <c r="A66" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>514</v>
@@ -33622,22 +33835,22 @@
         <v>46</v>
       </c>
       <c r="AR66" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS66" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT66" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU66" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV66" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW66" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX66">
         <v>986</v>
@@ -33651,7 +33864,7 @@
     </row>
     <row r="67" spans="1:52" ht="75">
       <c r="A67" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>531</v>
@@ -33780,22 +33993,22 @@
         <v>46</v>
       </c>
       <c r="AR67" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS67" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT67" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU67" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV67" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW67" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AX67">
         <v>54</v>
@@ -33809,7 +34022,7 @@
     </row>
     <row r="68" spans="1:52" ht="75">
       <c r="A68" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>543</v>
@@ -33938,22 +34151,22 @@
         <v>557</v>
       </c>
       <c r="AR68" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS68" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT68" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU68" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV68" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW68" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX68">
         <v>354</v>
@@ -33967,7 +34180,7 @@
     </row>
     <row r="69" spans="1:52" ht="105">
       <c r="A69" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>558</v>
@@ -34096,22 +34309,22 @@
         <v>46</v>
       </c>
       <c r="AR69" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS69" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT69" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU69" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV69" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW69" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AX69">
         <v>385</v>
@@ -34125,7 +34338,7 @@
     </row>
     <row r="70" spans="1:52" ht="105">
       <c r="A70" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>572</v>
@@ -34254,22 +34467,22 @@
         <v>46</v>
       </c>
       <c r="AR70" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS70" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT70" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU70" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV70" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW70" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AX70">
         <v>487</v>
@@ -34283,7 +34496,7 @@
     </row>
     <row r="71" spans="1:52" ht="135">
       <c r="A71" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>586</v>
@@ -34412,22 +34625,22 @@
         <v>46</v>
       </c>
       <c r="AR71" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS71" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT71" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU71" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV71" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW71" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AX71">
         <v>210</v>
@@ -34441,7 +34654,7 @@
     </row>
     <row r="72" spans="1:52" ht="120">
       <c r="A72" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>594</v>
@@ -34570,22 +34783,22 @@
         <v>46</v>
       </c>
       <c r="AR72" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS72" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AT72" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU72" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV72" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW72" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX72">
         <v>198</v>
@@ -34599,7 +34812,7 @@
     </row>
     <row r="73" spans="1:52" ht="105">
       <c r="A73" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>608</v>
@@ -34617,7 +34830,7 @@
         <v>1270</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>31</v>
@@ -34728,22 +34941,22 @@
         <v>629</v>
       </c>
       <c r="AR73" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS73" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT73" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU73" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV73" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW73" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX73">
         <v>1270</v>
@@ -34757,7 +34970,7 @@
     </row>
     <row r="74" spans="1:52" ht="135">
       <c r="A74" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>630</v>
@@ -34886,22 +35099,22 @@
         <v>651</v>
       </c>
       <c r="AR74" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS74" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT74" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AU74" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV74" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW74" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX74" t="s">
         <v>46</v>
@@ -34915,7 +35128,7 @@
     </row>
     <row r="75" spans="1:52" ht="90">
       <c r="A75" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>652</v>
@@ -34954,46 +35167,46 @@
         <v>46</v>
       </c>
       <c r="N75" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="O75" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="O75" s="2" t="s">
+      <c r="P75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U75" s="2" t="s">
         <v>1258</v>
       </c>
-      <c r="P75" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q75" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R75" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S75" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T75" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U75" s="2" t="s">
+      <c r="V75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W75" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="V75" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W75" s="2" t="s">
+      <c r="X75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z75" s="2" t="s">
         <v>1260</v>
       </c>
-      <c r="X75" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y75" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z75" s="2" t="s">
+      <c r="AA75" s="2" t="s">
         <v>1261</v>
-      </c>
-      <c r="AA75" s="2" t="s">
-        <v>1262</v>
       </c>
       <c r="AB75" s="2">
         <v>4</v>
@@ -35002,10 +35215,10 @@
         <v>2</v>
       </c>
       <c r="AD75" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="AE75" s="3" t="s">
         <v>1263</v>
-      </c>
-      <c r="AE75" s="3" t="s">
-        <v>1264</v>
       </c>
       <c r="AF75" s="2" t="s">
         <v>46</v>
@@ -35044,22 +35257,22 @@
         <v>46</v>
       </c>
       <c r="AR75" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS75" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT75" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU75" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV75" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW75" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX75" t="s">
         <v>46</v>
@@ -35073,7 +35286,7 @@
     </row>
     <row r="76" spans="1:52" ht="135">
       <c r="A76" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>113</v>
@@ -35202,22 +35415,22 @@
         <v>46</v>
       </c>
       <c r="AR76" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS76" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT76" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU76" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV76" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW76" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AX76">
         <v>1582</v>
@@ -35231,7 +35444,7 @@
     </row>
     <row r="77" spans="1:52" ht="150">
       <c r="A77" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>656</v>
@@ -35360,22 +35573,22 @@
         <v>46</v>
       </c>
       <c r="AR77" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS77" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT77" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU77" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV77" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW77" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX77" t="s">
         <v>46</v>
@@ -35389,7 +35602,7 @@
     </row>
     <row r="78" spans="1:52" ht="90">
       <c r="A78" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>64</v>
@@ -35488,7 +35701,7 @@
         <v>46</v>
       </c>
       <c r="AH78" s="15" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="AI78" s="3" t="s">
         <v>46</v>
@@ -35518,22 +35731,22 @@
         <v>81</v>
       </c>
       <c r="AR78" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS78" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT78" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU78" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV78" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW78" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX78">
         <v>130</v>
@@ -35547,10 +35760,10 @@
     </row>
     <row r="79" spans="1:52" ht="81.75" customHeight="1">
       <c r="A79" s="21" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C79" s="2">
         <v>2018</v>
@@ -35559,19 +35772,19 @@
         <v>48</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F79" s="2">
         <v>124</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>574</v>
@@ -35580,13 +35793,13 @@
         <v>658</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>110</v>
       </c>
       <c r="N79" s="23" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="O79" s="20">
         <v>0.47</v>
@@ -35604,7 +35817,7 @@
         <v>46</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="U79" s="2" t="s">
         <v>746</v>
@@ -35613,7 +35826,7 @@
         <v>46</v>
       </c>
       <c r="W79" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="X79" s="2" t="s">
         <v>602</v>
@@ -35622,19 +35835,19 @@
         <v>46</v>
       </c>
       <c r="Z79" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="AA79" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="AB79" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AC79" s="19" t="s">
+        <v>1378</v>
+      </c>
+      <c r="AD79" s="2" t="s">
         <v>1419</v>
-      </c>
-      <c r="AA79" s="2" t="s">
-        <v>1418</v>
-      </c>
-      <c r="AB79" s="2" t="s">
-        <v>1378</v>
-      </c>
-      <c r="AC79" s="19" t="s">
-        <v>1379</v>
-      </c>
-      <c r="AD79" s="2" t="s">
-        <v>1420</v>
       </c>
       <c r="AE79" s="2" t="s">
         <v>46</v>
@@ -35646,13 +35859,13 @@
         <v>46</v>
       </c>
       <c r="AH79" s="3" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="AI79" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AJ79" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="AK79" s="2" t="s">
         <v>46</v>
@@ -35670,28 +35883,28 @@
         <v>334</v>
       </c>
       <c r="AP79" s="2" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="AQ79" s="2" t="s">
         <v>334</v>
       </c>
       <c r="AR79" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS79" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT79" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU79" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV79" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW79" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AX79">
         <v>124</v>
@@ -35705,7 +35918,7 @@
     </row>
     <row r="80" spans="1:52" ht="90">
       <c r="A80" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>669</v>
@@ -35834,22 +36047,22 @@
         <v>46</v>
       </c>
       <c r="AR80" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS80" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT80" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU80" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV80" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW80" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AX80">
         <v>7122</v>
@@ -35863,7 +36076,7 @@
     </row>
     <row r="81" spans="1:52" ht="135">
       <c r="A81" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>678</v>
@@ -35992,22 +36205,22 @@
         <v>46</v>
       </c>
       <c r="AR81" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS81" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AT81" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU81" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV81" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW81" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX81">
         <v>296</v>
@@ -36021,7 +36234,7 @@
     </row>
     <row r="82" spans="1:52" ht="45">
       <c r="A82" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>699</v>
@@ -36150,22 +36363,22 @@
         <v>46</v>
       </c>
       <c r="AR82" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS82" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT82" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU82" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV82" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW82" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX82">
         <v>233</v>
@@ -36179,25 +36392,25 @@
     </row>
     <row r="83" spans="1:52" ht="75">
       <c r="A83" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C83" s="2">
         <v>1998</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>1239</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>1240</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>1241</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>31</v>
@@ -36212,34 +36425,34 @@
         <v>46</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>46</v>
       </c>
       <c r="N83" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R83" s="2" t="s">
         <v>1243</v>
       </c>
-      <c r="O83" s="2" t="s">
-        <v>1242</v>
-      </c>
-      <c r="P83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R83" s="2" t="s">
+      <c r="S83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U83" s="2" t="s">
         <v>1244</v>
-      </c>
-      <c r="S83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U83" s="2" t="s">
-        <v>1245</v>
       </c>
       <c r="V83" s="2" t="s">
         <v>46</v>
@@ -36248,56 +36461,56 @@
         <v>121</v>
       </c>
       <c r="X83" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="Y83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z83" s="2" t="s">
         <v>1246</v>
       </c>
-      <c r="Y83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z83" s="2" t="s">
+      <c r="AA83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB83" s="2" t="s">
         <v>1247</v>
       </c>
-      <c r="AA83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB83" s="2" t="s">
+      <c r="AC83" s="3" t="s">
         <v>1248</v>
       </c>
-      <c r="AC83" s="3" t="s">
+      <c r="AD83" s="2" t="s">
         <v>1249</v>
       </c>
-      <c r="AD83" s="2" t="s">
+      <c r="AE83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH83" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="AE83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH83" s="3" t="s">
+      <c r="AI83" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ83" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="AI83" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ83" s="2" t="s">
+      <c r="AK83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN83" s="2" t="s">
         <v>1252</v>
       </c>
-      <c r="AK83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN83" s="2" t="s">
-        <v>1253</v>
-      </c>
       <c r="AO83" s="2" t="s">
         <v>46</v>
       </c>
@@ -36308,22 +36521,22 @@
         <v>46</v>
       </c>
       <c r="AR83" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS83" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT83" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU83" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV83" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW83" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX83">
         <v>372</v>
@@ -36337,10 +36550,10 @@
     </row>
     <row r="84" spans="1:52" ht="90">
       <c r="A84" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C84" s="2">
         <v>2011</v>
@@ -36355,7 +36568,7 @@
         <v>9462</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>50</v>
@@ -36373,31 +36586,31 @@
         <v>46</v>
       </c>
       <c r="M84" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="O84" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="N84" s="2" t="s">
+      <c r="P84" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="R84" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="O84" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="Q84" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="R84" s="2" t="s">
+      <c r="S84" s="2" t="s">
         <v>1124</v>
-      </c>
-      <c r="S84" s="2" t="s">
-        <v>1125</v>
       </c>
       <c r="T84" s="2" t="s">
         <v>334</v>
       </c>
       <c r="U84" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="V84" s="2" t="s">
         <v>46</v>
@@ -36427,7 +36640,7 @@
         <v>46</v>
       </c>
       <c r="AE84" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="AF84" s="2" t="s">
         <v>46</v>
@@ -36454,7 +36667,7 @@
         <v>46</v>
       </c>
       <c r="AN84" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AO84" s="2" t="s">
         <v>46</v>
@@ -36466,22 +36679,22 @@
         <v>46</v>
       </c>
       <c r="AR84" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS84" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT84" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU84" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV84" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW84" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX84" t="s">
         <v>46</v>
@@ -36495,10 +36708,10 @@
     </row>
     <row r="85" spans="1:52" ht="90">
       <c r="A85" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C85" s="2">
         <v>2012</v>
@@ -36513,7 +36726,7 @@
         <v>10848</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>50</v>
@@ -36531,31 +36744,31 @@
         <v>46</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="N85" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="R85" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="O85" s="2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>1131</v>
-      </c>
-      <c r="Q85" s="2" t="s">
-        <v>1135</v>
-      </c>
-      <c r="R85" s="2" t="s">
+      <c r="S85" s="2" t="s">
         <v>1133</v>
-      </c>
-      <c r="S85" s="2" t="s">
-        <v>1134</v>
       </c>
       <c r="T85" s="2" t="s">
         <v>334</v>
       </c>
       <c r="U85" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="V85" s="2" t="s">
         <v>46</v>
@@ -36585,7 +36798,7 @@
         <v>46</v>
       </c>
       <c r="AE85" s="2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="AF85" s="2" t="s">
         <v>46</v>
@@ -36612,7 +36825,7 @@
         <v>46</v>
       </c>
       <c r="AN85" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AO85" s="2" t="s">
         <v>46</v>
@@ -36624,22 +36837,22 @@
         <v>46</v>
       </c>
       <c r="AR85" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS85" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT85" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU85" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV85" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW85" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX85" t="s">
         <v>46</v>
@@ -36653,10 +36866,10 @@
     </row>
     <row r="86" spans="1:52" ht="90">
       <c r="A86" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C86" s="2">
         <v>2013</v>
@@ -36671,7 +36884,7 @@
         <v>11927</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>50</v>
@@ -36689,31 +36902,31 @@
         <v>46</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="N86" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="R86" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="O86" s="2" t="s">
-        <v>1137</v>
-      </c>
-      <c r="P86" s="2" t="s">
-        <v>1138</v>
-      </c>
-      <c r="Q86" s="2" t="s">
-        <v>1142</v>
-      </c>
-      <c r="R86" s="2" t="s">
+      <c r="S86" s="2" t="s">
         <v>1140</v>
-      </c>
-      <c r="S86" s="2" t="s">
-        <v>1141</v>
       </c>
       <c r="T86" s="2" t="s">
         <v>334</v>
       </c>
       <c r="U86" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="V86" s="2" t="s">
         <v>46</v>
@@ -36740,10 +36953,10 @@
         <v>729</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AE86" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AF86" s="2" t="s">
         <v>46</v>
@@ -36770,7 +36983,7 @@
         <v>46</v>
       </c>
       <c r="AN86" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AO86" s="2" t="s">
         <v>46</v>
@@ -36782,22 +36995,22 @@
         <v>46</v>
       </c>
       <c r="AR86" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS86" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT86" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU86" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV86" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW86" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX86" t="s">
         <v>46</v>
@@ -36811,10 +37024,10 @@
     </row>
     <row r="87" spans="1:52" ht="165">
       <c r="A87" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C87" s="2">
         <v>2014</v>
@@ -36829,7 +37042,7 @@
         <v>12873</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>50</v>
@@ -36847,31 +37060,31 @@
         <v>46</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="N87" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="P87" s="2" t="s">
         <v>1146</v>
       </c>
-      <c r="O87" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="P87" s="2" t="s">
+      <c r="Q87" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="R87" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="Q87" s="2" t="s">
-        <v>1152</v>
-      </c>
-      <c r="R87" s="2" t="s">
-        <v>1148</v>
-      </c>
       <c r="S87" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="T87" s="2" t="s">
         <v>334</v>
       </c>
       <c r="U87" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="V87" s="2" t="s">
         <v>46</v>
@@ -36898,10 +37111,10 @@
         <v>746</v>
       </c>
       <c r="AD87" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AE87" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AF87" s="2" t="s">
         <v>46</v>
@@ -36928,10 +37141,10 @@
         <v>46</v>
       </c>
       <c r="AN87" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AO87" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AP87" s="4">
         <v>0.05</v>
@@ -36940,22 +37153,22 @@
         <v>46</v>
       </c>
       <c r="AR87" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS87" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT87" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU87" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV87" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW87" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX87" t="s">
         <v>46</v>
@@ -36969,10 +37182,10 @@
     </row>
     <row r="88" spans="1:52" ht="90">
       <c r="A88" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C88" s="2">
         <v>2015</v>
@@ -36987,7 +37200,7 @@
         <v>13602</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>50</v>
@@ -37005,31 +37218,31 @@
         <v>46</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="N88" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="O88" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="O88" s="2" t="s">
+      <c r="P88" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="P88" s="2" t="s">
+      <c r="Q88" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="R88" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="Q88" s="2" t="s">
-        <v>1162</v>
-      </c>
-      <c r="R88" s="2" t="s">
-        <v>1158</v>
-      </c>
       <c r="S88" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="T88" s="2" t="s">
         <v>334</v>
       </c>
       <c r="U88" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="V88" s="2" t="s">
         <v>46</v>
@@ -37056,10 +37269,10 @@
         <v>847</v>
       </c>
       <c r="AD88" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AE88" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AF88" s="2" t="s">
         <v>46</v>
@@ -37086,7 +37299,7 @@
         <v>46</v>
       </c>
       <c r="AN88" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AO88" s="2" t="s">
         <v>46</v>
@@ -37098,22 +37311,22 @@
         <v>46</v>
       </c>
       <c r="AR88" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS88" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT88" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU88" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV88" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW88" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX88" t="s">
         <v>46</v>
@@ -37127,10 +37340,10 @@
     </row>
     <row r="89" spans="1:52" ht="105">
       <c r="A89" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C89" s="2">
         <v>2016</v>
@@ -37145,7 +37358,7 @@
         <v>14225</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>50</v>
@@ -37163,31 +37376,31 @@
         <v>46</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="N89" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="P89" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="O89" s="2" t="s">
-        <v>1164</v>
-      </c>
-      <c r="P89" s="2" t="s">
+      <c r="Q89" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="R89" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="Q89" s="2" t="s">
-        <v>1171</v>
-      </c>
-      <c r="R89" s="2" t="s">
-        <v>1167</v>
-      </c>
       <c r="S89" s="2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="T89" s="2" t="s">
         <v>334</v>
       </c>
       <c r="U89" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="V89" s="2" t="s">
         <v>46</v>
@@ -37214,10 +37427,10 @@
         <v>891</v>
       </c>
       <c r="AD89" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AE89" s="2" t="s">
         <v>1168</v>
-      </c>
-      <c r="AE89" s="2" t="s">
-        <v>1169</v>
       </c>
       <c r="AF89" s="2" t="s">
         <v>46</v>
@@ -37244,7 +37457,7 @@
         <v>46</v>
       </c>
       <c r="AN89" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AO89" s="2" t="s">
         <v>46</v>
@@ -37256,22 +37469,22 @@
         <v>46</v>
       </c>
       <c r="AR89" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS89" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT89" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU89" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV89" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW89" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX89" t="s">
         <v>46</v>
@@ -37285,10 +37498,10 @@
     </row>
     <row r="90" spans="1:52" ht="105">
       <c r="A90" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C90" s="2">
         <v>2017</v>
@@ -37303,7 +37516,7 @@
         <v>14501</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>50</v>
@@ -37321,31 +37534,31 @@
         <v>46</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="N90" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="O90" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="O90" s="2" t="s">
+      <c r="P90" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="P90" s="2" t="s">
+      <c r="Q90" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="R90" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="Q90" s="2" t="s">
-        <v>1180</v>
-      </c>
-      <c r="R90" s="2" t="s">
-        <v>1176</v>
-      </c>
       <c r="S90" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="T90" s="2" t="s">
         <v>334</v>
       </c>
       <c r="U90" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="V90" s="2" t="s">
         <v>46</v>
@@ -37372,10 +37585,10 @@
         <v>922</v>
       </c>
       <c r="AD90" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="AE90" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AF90" s="2" t="s">
         <v>46</v>
@@ -37402,7 +37615,7 @@
         <v>46</v>
       </c>
       <c r="AN90" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AO90" s="2" t="s">
         <v>46</v>
@@ -37414,22 +37627,22 @@
         <v>46</v>
       </c>
       <c r="AR90" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS90" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT90" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU90" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV90" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW90" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX90" t="s">
         <v>46</v>
@@ -37443,10 +37656,10 @@
     </row>
     <row r="91" spans="1:52" ht="105">
       <c r="A91" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C91" s="2">
         <v>2018</v>
@@ -37461,7 +37674,7 @@
         <v>15041</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>50</v>
@@ -37479,31 +37692,31 @@
         <v>46</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="N91" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="P91" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="O91" s="2" t="s">
-        <v>1182</v>
-      </c>
-      <c r="P91" s="2" t="s">
+      <c r="Q91" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="R91" s="2" t="s">
         <v>1184</v>
       </c>
-      <c r="Q91" s="2" t="s">
-        <v>1189</v>
-      </c>
-      <c r="R91" s="2" t="s">
-        <v>1185</v>
-      </c>
       <c r="S91" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="T91" s="2" t="s">
         <v>334</v>
       </c>
       <c r="U91" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="V91" s="2" t="s">
         <v>46</v>
@@ -37530,10 +37743,10 @@
         <v>966</v>
       </c>
       <c r="AD91" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AE91" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AF91" s="2" t="s">
         <v>46</v>
@@ -37572,22 +37785,22 @@
         <v>46</v>
       </c>
       <c r="AR91" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS91" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT91" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU91" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV91" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW91" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX91" t="s">
         <v>46</v>
@@ -37601,10 +37814,10 @@
     </row>
     <row r="92" spans="1:52" ht="90">
       <c r="A92" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C92" s="2">
         <v>2019</v>
@@ -37619,7 +37832,7 @@
         <v>15067</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>50</v>
@@ -37637,31 +37850,31 @@
         <v>46</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="N92" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P92" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="O92" s="2" t="s">
-        <v>1191</v>
-      </c>
-      <c r="P92" s="2" t="s">
+      <c r="Q92" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="R92" s="2" t="s">
         <v>1193</v>
       </c>
-      <c r="Q92" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="R92" s="2" t="s">
-        <v>1194</v>
-      </c>
       <c r="S92" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="T92" s="2" t="s">
         <v>334</v>
       </c>
       <c r="U92" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="V92" s="2" t="s">
         <v>46</v>
@@ -37688,10 +37901,10 @@
         <v>860</v>
       </c>
       <c r="AD92" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="AE92" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="AF92" s="2" t="s">
         <v>46</v>
@@ -37730,22 +37943,22 @@
         <v>46</v>
       </c>
       <c r="AR92" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS92" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT92" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU92" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV92" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW92" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX92" t="s">
         <v>46</v>
@@ -37759,10 +37972,10 @@
     </row>
     <row r="93" spans="1:52" ht="147.94999999999999" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C93" s="2">
         <v>2020</v>
@@ -37777,7 +37990,7 @@
         <v>15497</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>50</v>
@@ -37795,31 +38008,31 @@
         <v>46</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="N93" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="P93" s="2" t="s">
         <v>1201</v>
       </c>
-      <c r="O93" s="2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="P93" s="2" t="s">
+      <c r="Q93" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="R93" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="Q93" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="R93" s="2" t="s">
-        <v>1203</v>
-      </c>
       <c r="S93" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="T93" s="2" t="s">
         <v>334</v>
       </c>
       <c r="U93" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="V93" s="2" t="s">
         <v>46</v>
@@ -37846,10 +38059,10 @@
         <v>1057</v>
       </c>
       <c r="AD93" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AE93" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AF93" s="2" t="s">
         <v>46</v>
@@ -37876,7 +38089,7 @@
         <v>46</v>
       </c>
       <c r="AN93" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AO93" s="2" t="s">
         <v>46</v>
@@ -37888,22 +38101,22 @@
         <v>46</v>
       </c>
       <c r="AR93" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS93" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT93" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU93" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV93" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW93" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX93" t="s">
         <v>46</v>
@@ -37917,7 +38130,7 @@
     </row>
     <row r="94" spans="1:52" ht="75">
       <c r="A94" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>712</v>
@@ -38046,22 +38259,22 @@
         <v>46</v>
       </c>
       <c r="AR94" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS94" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT94" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU94" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV94" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW94" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX94" t="s">
         <v>46</v>
@@ -38075,7 +38288,7 @@
     </row>
     <row r="95" spans="1:52" ht="315">
       <c r="A95" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>723</v>
@@ -38204,22 +38417,22 @@
         <v>736</v>
       </c>
       <c r="AR95" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AS95" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT95" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU95" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV95" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AW95" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX95" t="s">
         <v>46</v>
@@ -38233,7 +38446,7 @@
     </row>
     <row r="96" spans="1:52" ht="60">
       <c r="A96" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>737</v>
@@ -38362,22 +38575,22 @@
         <v>46</v>
       </c>
       <c r="AR96" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AS96" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AT96" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AU96" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AV96" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AW96" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX96">
         <v>99</v>

--- a/input/20220120-study.characteristics_update.xlsx
+++ b/input/20220120-study.characteristics_update.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\SR_prevalence_NTM\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96C8A0E-0556-414F-AB08-5705884CB5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4549D0D-F9FB-49B7-9E2F-AF762C37BC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{9BAFF895-4EE1-48C5-B0C9-C001584A386E}"/>
   </bookViews>
@@ -21047,9 +21047,6 @@
 M. malmoense - 1</t>
   </si>
   <si>
-    <t>14 / 376 (3.76%)</t>
-  </si>
-  <si>
     <t>1989 - 1997?</t>
   </si>
   <si>
@@ -22535,9 +22532,6 @@
     <t xml:space="preserve"> establish  NTM prevalence and treatment success in children with CF, and to identify any factors that may affect treatment success.</t>
   </si>
   <si>
-    <t>40/59 - 67.8%</t>
-  </si>
-  <si>
     <t>Described only the 
 Z-scores</t>
   </si>
@@ -22838,6 +22832,13 @@
 ≥40 &amp; &lt;70 - 630 (28.5)
 &lt;40 - 227 (10.3)</t>
     </r>
+  </si>
+  <si>
+    <t>14 / 372 (3.76%)</t>
+  </si>
+  <si>
+    <t>NTM +
+40/63 - 63.5%</t>
   </si>
 </sst>
 </file>
@@ -23380,8 +23381,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF44B60-E10E-47AB-8924-A521697E3CBB}">
   <dimension ref="A1:AZ96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15"/>
@@ -23429,7 +23431,7 @@
   <sheetData>
     <row r="1" spans="1:52" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -23558,36 +23560,36 @@
         <v>78</v>
       </c>
       <c r="AR1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AT1" t="s">
         <v>1442</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>1443</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>1444</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>1445</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>1446</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>1447</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>1448</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>1449</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="158.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>147</v>
@@ -23716,22 +23718,22 @@
         <v>46</v>
       </c>
       <c r="AR2" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS2" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT2" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU2" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV2" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW2" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX2">
         <v>4687</v>
@@ -23745,10 +23747,10 @@
     </row>
     <row r="3" spans="1:52" ht="120">
       <c r="A3" s="22" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1359</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1360</v>
       </c>
       <c r="C3" s="2">
         <v>2021</v>
@@ -23757,13 +23759,13 @@
         <v>236</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F3" s="2">
         <v>485</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>31</v>
@@ -23772,34 +23774,34 @@
         <v>67</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>180</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>110</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>1408</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>1361</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>1410</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>1362</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>322</v>
@@ -23820,76 +23822,76 @@
         <v>46</v>
       </c>
       <c r="Z3" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>1363</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="19" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3" s="3" t="s">
         <v>1364</v>
       </c>
-      <c r="AB3" s="19" t="s">
-        <v>1376</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>1375</v>
-      </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AI3" s="18" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
         <v>1366</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>1365</v>
-      </c>
-      <c r="AI3" s="18" t="s">
-        <v>1411</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AO3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP3" s="2" t="s">
         <v>1367</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>1369</v>
-      </c>
-      <c r="AO3" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>1368</v>
       </c>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS3" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AT3" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU3" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV3" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW3" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX3">
         <v>485</v>
@@ -23903,7 +23905,7 @@
     </row>
     <row r="4" spans="1:52" ht="269.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>164</v>
@@ -24032,22 +24034,22 @@
         <v>46</v>
       </c>
       <c r="AR4" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS4" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT4" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU4" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV4" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW4" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AX4">
         <v>10527</v>
@@ -24061,7 +24063,7 @@
     </row>
     <row r="5" spans="1:52" ht="240">
       <c r="A5" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>177</v>
@@ -24190,22 +24192,22 @@
         <v>191</v>
       </c>
       <c r="AR5" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS5" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT5" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU5" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV5" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW5" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AX5">
         <v>16153</v>
@@ -24219,7 +24221,7 @@
     </row>
     <row r="6" spans="1:52" ht="90">
       <c r="A6" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -24348,22 +24350,22 @@
         <v>46</v>
       </c>
       <c r="AR6" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS6" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT6" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU6" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV6" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW6" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX6">
         <v>42</v>
@@ -24377,7 +24379,7 @@
     </row>
     <row r="7" spans="1:52" ht="105">
       <c r="A7" s="17" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>127</v>
@@ -24416,7 +24418,7 @@
         <v>46</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>134</v>
@@ -24482,7 +24484,7 @@
         <v>46</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AK7" s="2" t="s">
         <v>46</v>
@@ -24506,22 +24508,22 @@
         <v>146</v>
       </c>
       <c r="AR7" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS7" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT7" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU7" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV7" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW7" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX7">
         <v>117</v>
@@ -24535,7 +24537,7 @@
     </row>
     <row r="8" spans="1:52" ht="150">
       <c r="A8" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>223</v>
@@ -24664,22 +24666,22 @@
         <v>46</v>
       </c>
       <c r="AR8" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS8" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT8" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU8" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV8" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW8" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AX8">
         <v>64</v>
@@ -24693,7 +24695,7 @@
     </row>
     <row r="9" spans="1:52" ht="150">
       <c r="A9" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>749</v>
@@ -24783,7 +24785,7 @@
         <v>46</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="AF9" s="2" t="s">
         <v>46</v>
@@ -24822,22 +24824,22 @@
         <v>762</v>
       </c>
       <c r="AR9" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS9" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT9" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU9" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV9" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW9" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX9" t="s">
         <v>46</v>
@@ -24851,7 +24853,7 @@
     </row>
     <row r="10" spans="1:52" ht="165">
       <c r="A10" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>763</v>
@@ -24899,7 +24901,7 @@
         <v>46</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>769</v>
@@ -24980,22 +24982,22 @@
         <v>774</v>
       </c>
       <c r="AR10" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS10" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT10" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU10" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV10" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW10" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX10" t="s">
         <v>46</v>
@@ -25009,7 +25011,7 @@
     </row>
     <row r="11" spans="1:52" ht="180">
       <c r="A11" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>775</v>
@@ -25138,22 +25140,22 @@
         <v>788</v>
       </c>
       <c r="AR11" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS11" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT11" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU11" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV11" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW11" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX11" t="s">
         <v>46</v>
@@ -25167,7 +25169,7 @@
     </row>
     <row r="12" spans="1:52" ht="225">
       <c r="A12" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>789</v>
@@ -25296,22 +25298,22 @@
         <v>801</v>
       </c>
       <c r="AR12" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS12" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT12" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU12" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV12" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW12" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX12" t="s">
         <v>46</v>
@@ -25325,7 +25327,7 @@
     </row>
     <row r="13" spans="1:52" ht="240">
       <c r="A13" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>802</v>
@@ -25367,7 +25369,7 @@
         <v>805</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>46</v>
@@ -25454,22 +25456,22 @@
         <v>813</v>
       </c>
       <c r="AR13" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS13" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT13" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU13" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV13" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW13" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX13" t="s">
         <v>46</v>
@@ -25483,7 +25485,7 @@
     </row>
     <row r="14" spans="1:52" ht="240">
       <c r="A14" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>802</v>
@@ -25525,7 +25527,7 @@
         <v>816</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>46</v>
@@ -25612,22 +25614,22 @@
         <v>824</v>
       </c>
       <c r="AR14" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS14" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT14" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU14" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV14" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW14" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX14" t="s">
         <v>46</v>
@@ -25641,7 +25643,7 @@
     </row>
     <row r="15" spans="1:52" ht="240">
       <c r="A15" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>825</v>
@@ -25683,7 +25685,7 @@
         <v>805</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>46</v>
@@ -25770,22 +25772,22 @@
         <v>835</v>
       </c>
       <c r="AR15" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS15" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT15" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU15" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV15" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW15" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX15" t="s">
         <v>46</v>
@@ -25799,7 +25801,7 @@
     </row>
     <row r="16" spans="1:52" ht="240">
       <c r="A16" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>836</v>
@@ -25928,22 +25930,22 @@
         <v>847</v>
       </c>
       <c r="AR16" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS16" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT16" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU16" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV16" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW16" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX16" t="s">
         <v>46</v>
@@ -25957,7 +25959,7 @@
     </row>
     <row r="17" spans="1:52" ht="60">
       <c r="A17" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1207</v>
@@ -26086,22 +26088,22 @@
         <v>46</v>
       </c>
       <c r="AR17" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS17" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT17" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU17" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV17" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW17" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX17">
         <v>214</v>
@@ -26115,7 +26117,7 @@
     </row>
     <row r="18" spans="1:52" ht="270">
       <c r="A18" s="17" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>235</v>
@@ -26208,7 +26210,7 @@
         <v>253</v>
       </c>
       <c r="AF18" s="13" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="AG18" s="2" t="s">
         <v>255</v>
@@ -26217,7 +26219,7 @@
         <v>256</v>
       </c>
       <c r="AI18" s="14" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="AJ18" s="2" t="s">
         <v>257</v>
@@ -26244,22 +26246,22 @@
         <v>261</v>
       </c>
       <c r="AR18" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS18" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AT18" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AU18" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AV18" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW18" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX18">
         <v>180</v>
@@ -26273,7 +26275,7 @@
     </row>
     <row r="19" spans="1:52" ht="180">
       <c r="A19" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>262</v>
@@ -26387,7 +26389,7 @@
         <v>46</v>
       </c>
       <c r="AM19" s="2" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="AN19" s="2" t="s">
         <v>46</v>
@@ -26402,22 +26404,22 @@
         <v>46</v>
       </c>
       <c r="AR19" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS19" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT19" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU19" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AV19" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW19" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX19" t="s">
         <v>46</v>
@@ -26431,7 +26433,7 @@
     </row>
     <row r="20" spans="1:52" ht="120">
       <c r="A20" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>850</v>
@@ -26560,22 +26562,22 @@
         <v>863</v>
       </c>
       <c r="AR20" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS20" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT20" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU20" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV20" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW20" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX20" t="s">
         <v>46</v>
@@ -26589,7 +26591,7 @@
     </row>
     <row r="21" spans="1:52" ht="120">
       <c r="A21" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>864</v>
@@ -26718,22 +26720,22 @@
         <v>863</v>
       </c>
       <c r="AR21" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS21" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT21" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU21" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV21" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW21" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX21" t="s">
         <v>46</v>
@@ -26747,7 +26749,7 @@
     </row>
     <row r="22" spans="1:52" ht="165">
       <c r="A22" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>874</v>
@@ -26876,22 +26878,22 @@
         <v>876</v>
       </c>
       <c r="AR22" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS22" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT22" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU22" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV22" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW22" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX22" t="s">
         <v>46</v>
@@ -26905,7 +26907,7 @@
     </row>
     <row r="23" spans="1:52" ht="210">
       <c r="A23" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>888</v>
@@ -27034,22 +27036,22 @@
         <v>898</v>
       </c>
       <c r="AR23" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS23" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT23" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU23" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV23" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW23" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX23" t="s">
         <v>46</v>
@@ -27063,7 +27065,7 @@
     </row>
     <row r="24" spans="1:52" ht="195">
       <c r="A24" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>901</v>
@@ -27192,22 +27194,22 @@
         <v>910</v>
       </c>
       <c r="AR24" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS24" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT24" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU24" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV24" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW24" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX24" t="s">
         <v>46</v>
@@ -27221,7 +27223,7 @@
     </row>
     <row r="25" spans="1:52" ht="180">
       <c r="A25" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>913</v>
@@ -27350,22 +27352,22 @@
         <v>923</v>
       </c>
       <c r="AR25" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS25" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT25" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU25" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV25" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW25" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX25" t="s">
         <v>46</v>
@@ -27379,7 +27381,7 @@
     </row>
     <row r="26" spans="1:52" ht="150">
       <c r="A26" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>926</v>
@@ -27508,22 +27510,22 @@
         <v>936</v>
       </c>
       <c r="AR26" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS26" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT26" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU26" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV26" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW26" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX26" t="s">
         <v>46</v>
@@ -27537,7 +27539,7 @@
     </row>
     <row r="27" spans="1:52" ht="165">
       <c r="A27" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>939</v>
@@ -27666,22 +27668,22 @@
         <v>950</v>
       </c>
       <c r="AR27" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS27" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT27" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU27" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV27" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW27" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX27" t="s">
         <v>46</v>
@@ -27695,7 +27697,7 @@
     </row>
     <row r="28" spans="1:52" ht="330">
       <c r="A28" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>276</v>
@@ -27824,22 +27826,22 @@
         <v>46</v>
       </c>
       <c r="AR28" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS28" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AT28" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU28" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AV28" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW28" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX28">
         <v>44</v>
@@ -27853,7 +27855,7 @@
     </row>
     <row r="29" spans="1:52" ht="105">
       <c r="A29" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>952</v>
@@ -27982,22 +27984,22 @@
         <v>46</v>
       </c>
       <c r="AR29" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS29" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT29" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU29" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV29" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW29" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX29" t="s">
         <v>46</v>
@@ -28011,7 +28013,7 @@
     </row>
     <row r="30" spans="1:52" ht="195">
       <c r="A30" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>953</v>
@@ -28026,7 +28028,7 @@
         <v>956</v>
       </c>
       <c r="F30" s="2">
-        <v>3913</v>
+        <v>3975</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>632</v>
@@ -28140,22 +28142,22 @@
         <v>46</v>
       </c>
       <c r="AR30" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS30" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT30" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU30" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV30" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW30" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX30" t="s">
         <v>46</v>
@@ -28169,7 +28171,7 @@
     </row>
     <row r="31" spans="1:52" ht="195">
       <c r="A31" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>954</v>
@@ -28298,22 +28300,22 @@
         <v>46</v>
       </c>
       <c r="AR31" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS31" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT31" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU31" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV31" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW31" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX31" t="s">
         <v>46</v>
@@ -28327,7 +28329,7 @@
     </row>
     <row r="32" spans="1:52" ht="120">
       <c r="A32" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>955</v>
@@ -28342,7 +28344,7 @@
         <v>956</v>
       </c>
       <c r="F32" s="2">
-        <v>4077</v>
+        <v>4128</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>632</v>
@@ -28456,22 +28458,22 @@
         <v>987</v>
       </c>
       <c r="AR32" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS32" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT32" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU32" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV32" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW32" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX32" t="s">
         <v>46</v>
@@ -28485,7 +28487,7 @@
     </row>
     <row r="33" spans="1:52" ht="135">
       <c r="A33" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>988</v>
@@ -28614,22 +28616,22 @@
         <v>995</v>
       </c>
       <c r="AR33" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS33" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT33" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU33" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV33" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW33" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX33" t="s">
         <v>46</v>
@@ -28643,7 +28645,7 @@
     </row>
     <row r="34" spans="1:52" ht="135">
       <c r="A34" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>996</v>
@@ -28772,22 +28774,22 @@
         <v>1003</v>
       </c>
       <c r="AR34" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS34" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT34" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU34" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV34" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW34" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX34" t="s">
         <v>46</v>
@@ -28801,7 +28803,7 @@
     </row>
     <row r="35" spans="1:52" ht="135">
       <c r="A35" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>1004</v>
@@ -28930,22 +28932,22 @@
         <v>1011</v>
       </c>
       <c r="AR35" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS35" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT35" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU35" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV35" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW35" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX35" t="s">
         <v>46</v>
@@ -28959,7 +28961,7 @@
     </row>
     <row r="36" spans="1:52" ht="135">
       <c r="A36" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>1012</v>
@@ -29088,22 +29090,22 @@
         <v>1019</v>
       </c>
       <c r="AR36" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS36" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT36" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU36" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV36" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW36" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX36" t="s">
         <v>46</v>
@@ -29117,7 +29119,7 @@
     </row>
     <row r="37" spans="1:52" ht="150">
       <c r="A37" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>1020</v>
@@ -29246,22 +29248,22 @@
         <v>1027</v>
       </c>
       <c r="AR37" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS37" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT37" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU37" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV37" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW37" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX37" t="s">
         <v>46</v>
@@ -29275,7 +29277,7 @@
     </row>
     <row r="38" spans="1:52" ht="150">
       <c r="A38" s="17" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>298</v>
@@ -29404,22 +29406,22 @@
         <v>46</v>
       </c>
       <c r="AR38" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS38" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AT38" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU38" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV38" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW38" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX38">
         <v>129</v>
@@ -29433,7 +29435,7 @@
     </row>
     <row r="39" spans="1:52" ht="90">
       <c r="A39" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>310</v>
@@ -29562,22 +29564,22 @@
         <v>333</v>
       </c>
       <c r="AR39" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS39" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AT39" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU39" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV39" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW39" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX39">
         <v>401</v>
@@ -29591,7 +29593,7 @@
     </row>
     <row r="40" spans="1:52" ht="150">
       <c r="A40" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>1028</v>
@@ -29720,22 +29722,22 @@
         <v>1035</v>
       </c>
       <c r="AR40" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS40" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT40" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU40" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV40" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW40" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX40" t="s">
         <v>46</v>
@@ -29749,7 +29751,7 @@
     </row>
     <row r="41" spans="1:52" ht="150">
       <c r="A41" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>1039</v>
@@ -29878,22 +29880,22 @@
         <v>1054</v>
       </c>
       <c r="AR41" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS41" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT41" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU41" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV41" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW41" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX41" t="s">
         <v>46</v>
@@ -29907,7 +29909,7 @@
     </row>
     <row r="42" spans="1:52" ht="150">
       <c r="A42" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>1047</v>
@@ -30036,22 +30038,22 @@
         <v>1057</v>
       </c>
       <c r="AR42" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS42" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT42" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU42" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV42" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW42" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX42" t="s">
         <v>46</v>
@@ -30065,7 +30067,7 @@
     </row>
     <row r="43" spans="1:52" ht="150">
       <c r="A43" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>1053</v>
@@ -30194,22 +30196,22 @@
         <v>1067</v>
       </c>
       <c r="AR43" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS43" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT43" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU43" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV43" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW43" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX43" t="s">
         <v>46</v>
@@ -30223,7 +30225,7 @@
     </row>
     <row r="44" spans="1:52" ht="150">
       <c r="A44" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>1068</v>
@@ -30352,22 +30354,22 @@
         <v>1077</v>
       </c>
       <c r="AR44" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS44" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT44" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU44" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV44" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW44" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX44" t="s">
         <v>46</v>
@@ -30381,7 +30383,7 @@
     </row>
     <row r="45" spans="1:52" ht="150">
       <c r="A45" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>1078</v>
@@ -30510,22 +30512,22 @@
         <v>1086</v>
       </c>
       <c r="AR45" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS45" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT45" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU45" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV45" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW45" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX45" t="s">
         <v>46</v>
@@ -30539,7 +30541,7 @@
     </row>
     <row r="46" spans="1:52" ht="150">
       <c r="A46" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>1087</v>
@@ -30668,22 +30670,22 @@
         <v>1095</v>
       </c>
       <c r="AR46" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS46" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT46" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU46" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV46" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW46" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX46" t="s">
         <v>46</v>
@@ -30697,7 +30699,7 @@
     </row>
     <row r="47" spans="1:52" ht="150">
       <c r="A47" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>1096</v>
@@ -30826,22 +30828,22 @@
         <v>1104</v>
       </c>
       <c r="AR47" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS47" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT47" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU47" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV47" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW47" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX47" t="s">
         <v>46</v>
@@ -30855,7 +30857,7 @@
     </row>
     <row r="48" spans="1:52" ht="150">
       <c r="A48" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>1105</v>
@@ -30984,22 +30986,22 @@
         <v>1113</v>
       </c>
       <c r="AR48" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS48" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT48" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU48" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV48" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW48" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX48" t="s">
         <v>46</v>
@@ -31013,7 +31015,7 @@
     </row>
     <row r="49" spans="1:52" ht="90" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>47</v>
@@ -31142,22 +31144,22 @@
         <v>46</v>
       </c>
       <c r="AR49" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS49" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT49" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU49" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV49" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW49" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX49">
         <v>431</v>
@@ -31171,7 +31173,7 @@
     </row>
     <row r="50" spans="1:52" ht="75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>335</v>
@@ -31300,22 +31302,22 @@
         <v>46</v>
       </c>
       <c r="AR50" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS50" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT50" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU50" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV50" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW50" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX50">
         <v>829</v>
@@ -31329,7 +31331,7 @@
     </row>
     <row r="51" spans="1:52" ht="120" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>350</v>
@@ -31368,7 +31370,7 @@
         <v>46</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>354</v>
@@ -31458,22 +31460,22 @@
         <v>46</v>
       </c>
       <c r="AR51" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS51" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AT51" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU51" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV51" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW51" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX51">
         <v>106</v>
@@ -31487,7 +31489,7 @@
     </row>
     <row r="52" spans="1:52" ht="210" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>369</v>
@@ -31616,22 +31618,22 @@
         <v>46</v>
       </c>
       <c r="AR52" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS52" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT52" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU52" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV52" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW52" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX52">
         <v>92</v>
@@ -31645,7 +31647,7 @@
     </row>
     <row r="53" spans="1:52" ht="120" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>385</v>
@@ -31774,22 +31776,22 @@
         <v>46</v>
       </c>
       <c r="AR53" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS53" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT53" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU53" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV53" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW53" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX53">
         <v>5333</v>
@@ -31803,7 +31805,7 @@
     </row>
     <row r="54" spans="1:52" ht="180" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>406</v>
@@ -31932,22 +31934,22 @@
         <v>46</v>
       </c>
       <c r="AR54" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS54" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AT54" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU54" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV54" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW54" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX54">
         <v>28</v>
@@ -31961,7 +31963,7 @@
     </row>
     <row r="55" spans="1:52" ht="180">
       <c r="A55" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>437</v>
@@ -32090,22 +32092,22 @@
         <v>46</v>
       </c>
       <c r="AR55" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS55" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT55" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU55" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AV55" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW55" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX55" t="s">
         <v>46</v>
@@ -32119,7 +32121,7 @@
     </row>
     <row r="56" spans="1:52" ht="75">
       <c r="A56" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>419</v>
@@ -32248,22 +32250,22 @@
         <v>46</v>
       </c>
       <c r="AR56" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS56" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT56" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU56" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV56" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW56" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AX56">
         <v>185</v>
@@ -32277,10 +32279,10 @@
     </row>
     <row r="57" spans="1:52" ht="225">
       <c r="A57" s="21" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>1381</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>1382</v>
       </c>
       <c r="C57" s="2">
         <v>2021</v>
@@ -32289,16 +32291,16 @@
         <v>48</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F57" s="23">
         <v>171</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>115</v>
@@ -32310,13 +32312,13 @@
         <v>658</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>110</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="O57" s="24">
         <v>0.54900000000000004</v>
@@ -32325,64 +32327,64 @@
         <v>46</v>
       </c>
       <c r="Q57" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="R57" s="2" t="s">
         <v>1423</v>
       </c>
-      <c r="R57" s="2" t="s">
+      <c r="S57" s="2" t="s">
         <v>1424</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>1425</v>
       </c>
       <c r="T57" s="2" t="s">
         <v>322</v>
       </c>
       <c r="U57" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="V57" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="W57" s="2" t="s">
         <v>1385</v>
       </c>
-      <c r="V57" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="W57" s="2" t="s">
+      <c r="X57" s="2" t="s">
         <v>1386</v>
       </c>
-      <c r="X57" s="2" t="s">
+      <c r="Y57" s="2" t="s">
         <v>1387</v>
-      </c>
-      <c r="Y57" s="2" t="s">
-        <v>1388</v>
       </c>
       <c r="Z57" s="2" t="s">
         <v>110</v>
       </c>
       <c r="AA57" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="AB57" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="AC57" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="AD57" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AE57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH57" s="18" t="s">
+        <v>1428</v>
+      </c>
+      <c r="AI57" s="18" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AJ57" s="2" t="s">
         <v>1389</v>
-      </c>
-      <c r="AB57" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="AC57" s="2" t="s">
-        <v>1427</v>
-      </c>
-      <c r="AD57" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="AE57" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF57" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG57" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH57" s="18" t="s">
-        <v>1429</v>
-      </c>
-      <c r="AI57" s="18" t="s">
-        <v>1430</v>
-      </c>
-      <c r="AJ57" s="2" t="s">
-        <v>1390</v>
       </c>
       <c r="AK57" s="2" t="s">
         <v>46</v>
@@ -32397,31 +32399,31 @@
         <v>0</v>
       </c>
       <c r="AO57" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="AP57" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AQ57" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="AP57" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="AQ57" s="2" t="s">
-        <v>1432</v>
-      </c>
       <c r="AR57" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS57" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AT57" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU57" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV57" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW57" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX57">
         <v>171</v>
@@ -32435,10 +32437,10 @@
     </row>
     <row r="58" spans="1:52" ht="165">
       <c r="A58" s="21" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C58" s="2">
         <v>2021</v>
@@ -32453,7 +32455,7 @@
         <v>567</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>31</v>
@@ -32462,37 +32464,37 @@
         <v>29</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>658</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>110</v>
       </c>
       <c r="N58" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="O58" s="24" t="s">
+        <v>1456</v>
+      </c>
+      <c r="P58" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="O58" s="24" t="s">
-        <v>1435</v>
-      </c>
-      <c r="P58" s="2" t="s">
+      <c r="Q58" s="2" t="s">
         <v>1395</v>
       </c>
-      <c r="Q58" s="2" t="s">
+      <c r="R58" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="T58" s="2" t="s">
         <v>1396</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>1387</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>1436</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>1397</v>
       </c>
       <c r="U58" s="2" t="s">
         <v>746</v>
@@ -32501,10 +32503,10 @@
         <v>285</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="X58" s="2" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="Y58" s="2" t="s">
         <v>46</v>
@@ -32513,34 +32515,34 @@
         <v>110</v>
       </c>
       <c r="AA58" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AB58" s="2" t="s">
         <v>1399</v>
       </c>
-      <c r="AB58" s="2" t="s">
+      <c r="AC58" s="2" t="s">
         <v>1400</v>
       </c>
-      <c r="AC58" s="2" t="s">
+      <c r="AD58" s="2" t="s">
         <v>1401</v>
       </c>
-      <c r="AD58" s="2" t="s">
+      <c r="AE58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH58" s="3" t="s">
         <v>1402</v>
       </c>
-      <c r="AE58" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF58" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG58" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH58" s="3" t="s">
+      <c r="AI58" s="18" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AJ58" s="2" t="s">
         <v>1403</v>
-      </c>
-      <c r="AI58" s="18" t="s">
-        <v>1437</v>
-      </c>
-      <c r="AJ58" s="2" t="s">
-        <v>1404</v>
       </c>
       <c r="AK58" s="2" t="s">
         <v>46</v>
@@ -32555,31 +32557,31 @@
         <v>334</v>
       </c>
       <c r="AO58" s="2" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AP58" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="AQ58" s="2" t="s">
         <v>334</v>
       </c>
       <c r="AR58" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS58" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AT58" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU58" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV58" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW58" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX58">
         <v>567</v>
@@ -32593,7 +32595,7 @@
     </row>
     <row r="59" spans="1:52" ht="195">
       <c r="A59" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>82</v>
@@ -32680,7 +32682,7 @@
         <v>211</v>
       </c>
       <c r="AD59" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="AE59" s="2" t="s">
         <v>46</v>
@@ -32722,22 +32724,22 @@
         <v>46</v>
       </c>
       <c r="AR59" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS59" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT59" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU59" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV59" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW59" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX59">
         <v>87</v>
@@ -32751,7 +32753,7 @@
     </row>
     <row r="60" spans="1:52" ht="135">
       <c r="A60" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>446</v>
@@ -32880,22 +32882,22 @@
         <v>463</v>
       </c>
       <c r="AR60" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS60" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT60" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU60" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV60" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW60" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX60">
         <v>30896</v>
@@ -32909,7 +32911,7 @@
     </row>
     <row r="61" spans="1:52" ht="210">
       <c r="A61" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>464</v>
@@ -33038,22 +33040,22 @@
         <v>46</v>
       </c>
       <c r="AR61" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS61" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT61" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU61" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AV61" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW61" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX61">
         <v>91</v>
@@ -33067,7 +33069,7 @@
     </row>
     <row r="62" spans="1:52" ht="150">
       <c r="A62" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>483</v>
@@ -33196,22 +33198,22 @@
         <v>502</v>
       </c>
       <c r="AR62" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS62" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AT62" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU62" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV62" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW62" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX62">
         <v>186</v>
@@ -33225,7 +33227,7 @@
     </row>
     <row r="63" spans="1:52" ht="105">
       <c r="A63" s="17" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>1221</v>
@@ -33361,22 +33363,22 @@
         <v>46</v>
       </c>
       <c r="AR63" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS63" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT63" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU63" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV63" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW63" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX63" t="s">
         <v>46</v>
@@ -33390,7 +33392,7 @@
     </row>
     <row r="64" spans="1:52" ht="120">
       <c r="A64" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>99</v>
@@ -33519,22 +33521,22 @@
         <v>46</v>
       </c>
       <c r="AR64" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS64" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AT64" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU64" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV64" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW64" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX64">
         <v>139</v>
@@ -33548,7 +33550,7 @@
     </row>
     <row r="65" spans="1:52" ht="150">
       <c r="A65" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>503</v>
@@ -33677,22 +33679,22 @@
         <v>46</v>
       </c>
       <c r="AR65" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS65" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT65" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU65" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV65" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW65" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX65">
         <v>37</v>
@@ -33706,7 +33708,7 @@
     </row>
     <row r="66" spans="1:52" ht="105">
       <c r="A66" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>514</v>
@@ -33835,22 +33837,22 @@
         <v>46</v>
       </c>
       <c r="AR66" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS66" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT66" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU66" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV66" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW66" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX66">
         <v>986</v>
@@ -33864,7 +33866,7 @@
     </row>
     <row r="67" spans="1:52" ht="75">
       <c r="A67" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>531</v>
@@ -33993,22 +33995,22 @@
         <v>46</v>
       </c>
       <c r="AR67" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS67" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT67" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU67" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV67" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW67" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AX67">
         <v>54</v>
@@ -34022,7 +34024,7 @@
     </row>
     <row r="68" spans="1:52" ht="75">
       <c r="A68" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>543</v>
@@ -34151,22 +34153,22 @@
         <v>557</v>
       </c>
       <c r="AR68" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS68" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT68" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU68" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV68" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW68" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX68">
         <v>354</v>
@@ -34180,7 +34182,7 @@
     </row>
     <row r="69" spans="1:52" ht="105">
       <c r="A69" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>558</v>
@@ -34309,22 +34311,22 @@
         <v>46</v>
       </c>
       <c r="AR69" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS69" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT69" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU69" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV69" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW69" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AX69">
         <v>385</v>
@@ -34338,7 +34340,7 @@
     </row>
     <row r="70" spans="1:52" ht="105">
       <c r="A70" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>572</v>
@@ -34467,22 +34469,22 @@
         <v>46</v>
       </c>
       <c r="AR70" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS70" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT70" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU70" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV70" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW70" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AX70">
         <v>487</v>
@@ -34496,7 +34498,7 @@
     </row>
     <row r="71" spans="1:52" ht="135">
       <c r="A71" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>586</v>
@@ -34625,22 +34627,22 @@
         <v>46</v>
       </c>
       <c r="AR71" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS71" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT71" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU71" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV71" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW71" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AX71">
         <v>210</v>
@@ -34654,7 +34656,7 @@
     </row>
     <row r="72" spans="1:52" ht="120">
       <c r="A72" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>594</v>
@@ -34783,22 +34785,22 @@
         <v>46</v>
       </c>
       <c r="AR72" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS72" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AT72" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU72" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV72" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW72" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX72">
         <v>198</v>
@@ -34812,7 +34814,7 @@
     </row>
     <row r="73" spans="1:52" ht="105">
       <c r="A73" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>608</v>
@@ -34830,7 +34832,7 @@
         <v>1270</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>31</v>
@@ -34941,22 +34943,22 @@
         <v>629</v>
       </c>
       <c r="AR73" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS73" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT73" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU73" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV73" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW73" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX73">
         <v>1270</v>
@@ -34970,7 +34972,7 @@
     </row>
     <row r="74" spans="1:52" ht="135">
       <c r="A74" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>630</v>
@@ -35099,22 +35101,22 @@
         <v>651</v>
       </c>
       <c r="AR74" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS74" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT74" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AU74" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV74" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW74" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX74" t="s">
         <v>46</v>
@@ -35128,7 +35130,7 @@
     </row>
     <row r="75" spans="1:52" ht="90">
       <c r="A75" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>652</v>
@@ -35167,46 +35169,46 @@
         <v>46</v>
       </c>
       <c r="N75" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="O75" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="O75" s="2" t="s">
+      <c r="P75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U75" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="P75" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q75" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R75" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S75" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T75" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U75" s="2" t="s">
+      <c r="V75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W75" s="2" t="s">
         <v>1258</v>
       </c>
-      <c r="V75" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W75" s="2" t="s">
+      <c r="X75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z75" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="X75" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y75" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z75" s="2" t="s">
+      <c r="AA75" s="2" t="s">
         <v>1260</v>
-      </c>
-      <c r="AA75" s="2" t="s">
-        <v>1261</v>
       </c>
       <c r="AB75" s="2">
         <v>4</v>
@@ -35215,10 +35217,10 @@
         <v>2</v>
       </c>
       <c r="AD75" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AE75" s="3" t="s">
         <v>1262</v>
-      </c>
-      <c r="AE75" s="3" t="s">
-        <v>1263</v>
       </c>
       <c r="AF75" s="2" t="s">
         <v>46</v>
@@ -35257,22 +35259,22 @@
         <v>46</v>
       </c>
       <c r="AR75" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS75" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT75" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU75" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV75" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW75" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX75" t="s">
         <v>46</v>
@@ -35286,7 +35288,7 @@
     </row>
     <row r="76" spans="1:52" ht="135">
       <c r="A76" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>113</v>
@@ -35415,22 +35417,22 @@
         <v>46</v>
       </c>
       <c r="AR76" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS76" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT76" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU76" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV76" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW76" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AX76">
         <v>1582</v>
@@ -35444,7 +35446,7 @@
     </row>
     <row r="77" spans="1:52" ht="150">
       <c r="A77" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>656</v>
@@ -35573,22 +35575,22 @@
         <v>46</v>
       </c>
       <c r="AR77" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS77" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT77" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU77" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV77" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW77" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX77" t="s">
         <v>46</v>
@@ -35602,7 +35604,7 @@
     </row>
     <row r="78" spans="1:52" ht="90">
       <c r="A78" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>64</v>
@@ -35701,7 +35703,7 @@
         <v>46</v>
       </c>
       <c r="AH78" s="15" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="AI78" s="3" t="s">
         <v>46</v>
@@ -35731,22 +35733,22 @@
         <v>81</v>
       </c>
       <c r="AR78" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS78" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT78" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU78" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV78" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW78" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX78">
         <v>130</v>
@@ -35760,10 +35762,10 @@
     </row>
     <row r="79" spans="1:52" ht="81.75" customHeight="1">
       <c r="A79" s="21" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C79" s="2">
         <v>2018</v>
@@ -35772,19 +35774,19 @@
         <v>48</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="F79" s="2">
         <v>124</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>574</v>
@@ -35793,13 +35795,13 @@
         <v>658</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>110</v>
       </c>
       <c r="N79" s="23" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="O79" s="20">
         <v>0.47</v>
@@ -35817,7 +35819,7 @@
         <v>46</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="U79" s="2" t="s">
         <v>746</v>
@@ -35826,7 +35828,7 @@
         <v>46</v>
       </c>
       <c r="W79" s="2" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="X79" s="2" t="s">
         <v>602</v>
@@ -35835,19 +35837,19 @@
         <v>46</v>
       </c>
       <c r="Z79" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="AA79" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="AB79" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="AC79" s="19" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AD79" s="2" t="s">
         <v>1418</v>
-      </c>
-      <c r="AA79" s="2" t="s">
-        <v>1417</v>
-      </c>
-      <c r="AB79" s="2" t="s">
-        <v>1377</v>
-      </c>
-      <c r="AC79" s="19" t="s">
-        <v>1378</v>
-      </c>
-      <c r="AD79" s="2" t="s">
-        <v>1419</v>
       </c>
       <c r="AE79" s="2" t="s">
         <v>46</v>
@@ -35859,13 +35861,13 @@
         <v>46</v>
       </c>
       <c r="AH79" s="3" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="AI79" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AJ79" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="AK79" s="2" t="s">
         <v>46</v>
@@ -35883,28 +35885,28 @@
         <v>334</v>
       </c>
       <c r="AP79" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="AQ79" s="2" t="s">
         <v>334</v>
       </c>
       <c r="AR79" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS79" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT79" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU79" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV79" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW79" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AX79">
         <v>124</v>
@@ -35918,7 +35920,7 @@
     </row>
     <row r="80" spans="1:52" ht="90">
       <c r="A80" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>669</v>
@@ -36047,22 +36049,22 @@
         <v>46</v>
       </c>
       <c r="AR80" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS80" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT80" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU80" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV80" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW80" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AX80">
         <v>7122</v>
@@ -36076,7 +36078,7 @@
     </row>
     <row r="81" spans="1:52" ht="135">
       <c r="A81" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>678</v>
@@ -36205,22 +36207,22 @@
         <v>46</v>
       </c>
       <c r="AR81" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS81" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AT81" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU81" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV81" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW81" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX81">
         <v>296</v>
@@ -36234,7 +36236,7 @@
     </row>
     <row r="82" spans="1:52" ht="45">
       <c r="A82" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>699</v>
@@ -36363,22 +36365,22 @@
         <v>46</v>
       </c>
       <c r="AR82" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS82" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT82" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU82" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV82" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW82" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX82">
         <v>233</v>
@@ -36392,7 +36394,7 @@
     </row>
     <row r="83" spans="1:52" ht="75">
       <c r="A83" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>1236</v>
@@ -36491,26 +36493,26 @@
         <v>46</v>
       </c>
       <c r="AH83" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="AI83" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ83" s="2" t="s">
         <v>1250</v>
       </c>
-      <c r="AI83" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ83" s="2" t="s">
+      <c r="AK83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN83" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="AK83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN83" s="2" t="s">
-        <v>1252</v>
-      </c>
       <c r="AO83" s="2" t="s">
         <v>46</v>
       </c>
@@ -36521,22 +36523,22 @@
         <v>46</v>
       </c>
       <c r="AR83" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS83" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT83" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU83" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV83" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW83" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX83">
         <v>372</v>
@@ -36550,7 +36552,7 @@
     </row>
     <row r="84" spans="1:52" ht="90">
       <c r="A84" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>1114</v>
@@ -36679,22 +36681,22 @@
         <v>46</v>
       </c>
       <c r="AR84" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS84" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT84" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU84" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV84" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW84" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX84" t="s">
         <v>46</v>
@@ -36708,7 +36710,7 @@
     </row>
     <row r="85" spans="1:52" ht="90">
       <c r="A85" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>1115</v>
@@ -36837,22 +36839,22 @@
         <v>46</v>
       </c>
       <c r="AR85" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS85" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT85" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU85" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV85" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW85" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX85" t="s">
         <v>46</v>
@@ -36866,7 +36868,7 @@
     </row>
     <row r="86" spans="1:52" ht="90">
       <c r="A86" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>1116</v>
@@ -36995,22 +36997,22 @@
         <v>46</v>
       </c>
       <c r="AR86" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS86" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT86" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU86" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV86" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW86" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX86" t="s">
         <v>46</v>
@@ -37024,7 +37026,7 @@
     </row>
     <row r="87" spans="1:52" ht="165">
       <c r="A87" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>1117</v>
@@ -37153,22 +37155,22 @@
         <v>46</v>
       </c>
       <c r="AR87" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS87" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT87" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU87" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV87" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW87" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX87" t="s">
         <v>46</v>
@@ -37182,7 +37184,7 @@
     </row>
     <row r="88" spans="1:52" ht="90">
       <c r="A88" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>1153</v>
@@ -37311,22 +37313,22 @@
         <v>46</v>
       </c>
       <c r="AR88" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS88" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT88" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU88" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV88" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW88" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX88" t="s">
         <v>46</v>
@@ -37340,7 +37342,7 @@
     </row>
     <row r="89" spans="1:52" ht="105">
       <c r="A89" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>1162</v>
@@ -37469,22 +37471,22 @@
         <v>46</v>
       </c>
       <c r="AR89" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS89" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT89" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU89" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV89" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW89" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX89" t="s">
         <v>46</v>
@@ -37498,7 +37500,7 @@
     </row>
     <row r="90" spans="1:52" ht="105">
       <c r="A90" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>1171</v>
@@ -37627,22 +37629,22 @@
         <v>46</v>
       </c>
       <c r="AR90" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS90" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT90" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU90" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV90" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW90" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX90" t="s">
         <v>46</v>
@@ -37656,7 +37658,7 @@
     </row>
     <row r="91" spans="1:52" ht="105">
       <c r="A91" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>1180</v>
@@ -37785,22 +37787,22 @@
         <v>46</v>
       </c>
       <c r="AR91" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS91" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT91" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU91" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV91" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW91" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX91" t="s">
         <v>46</v>
@@ -37814,7 +37816,7 @@
     </row>
     <row r="92" spans="1:52" ht="90">
       <c r="A92" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>1189</v>
@@ -37943,22 +37945,22 @@
         <v>46</v>
       </c>
       <c r="AR92" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS92" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT92" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU92" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV92" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW92" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX92" t="s">
         <v>46</v>
@@ -37972,7 +37974,7 @@
     </row>
     <row r="93" spans="1:52" ht="147.94999999999999" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>1198</v>
@@ -38101,22 +38103,22 @@
         <v>46</v>
       </c>
       <c r="AR93" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS93" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT93" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU93" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV93" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW93" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX93" t="s">
         <v>46</v>
@@ -38130,7 +38132,7 @@
     </row>
     <row r="94" spans="1:52" ht="75">
       <c r="A94" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>712</v>
@@ -38259,22 +38261,22 @@
         <v>46</v>
       </c>
       <c r="AR94" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS94" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT94" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU94" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV94" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW94" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX94" t="s">
         <v>46</v>
@@ -38288,7 +38290,7 @@
     </row>
     <row r="95" spans="1:52" ht="315">
       <c r="A95" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>723</v>
@@ -38417,22 +38419,22 @@
         <v>736</v>
       </c>
       <c r="AR95" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AS95" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT95" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU95" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV95" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AW95" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX95" t="s">
         <v>46</v>
@@ -38446,7 +38448,7 @@
     </row>
     <row r="96" spans="1:52" ht="60">
       <c r="A96" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>737</v>
@@ -38575,22 +38577,22 @@
         <v>46</v>
       </c>
       <c r="AR96" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AS96" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AT96" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AU96" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV96" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AW96" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AX96">
         <v>99</v>
@@ -38603,7 +38605,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A1:AQ96" xr:uid="{765A25C5-43E9-47DC-8427-7637ACFB5824}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AQ96">
       <sortCondition ref="A1:A96"/>

--- a/input/20220120-study.characteristics_update.xlsx
+++ b/input/20220120-study.characteristics_update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\SR_prevalence_NTM\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4549D0D-F9FB-49B7-9E2F-AF762C37BC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0B3AED-5755-4C7D-A896-59E41B603394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{9BAFF895-4EE1-48C5-B0C9-C001584A386E}"/>
   </bookViews>
@@ -22845,7 +22845,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23382,11 +23382,13 @@
   <dimension ref="A1:AZ96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" style="2" customWidth="1"/>
@@ -23429,7 +23431,7 @@
     <col min="44" max="16384" width="18.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="20.25" customHeight="1">
+    <row r="1" spans="1:52" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1357</v>
       </c>
@@ -23587,7 +23589,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="158.25" customHeight="1">
+    <row r="2" spans="1:52" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1437</v>
       </c>
@@ -23745,7 +23747,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:52" ht="120">
+    <row r="3" spans="1:52" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>1358</v>
       </c>
@@ -23903,7 +23905,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:52" ht="269.25" customHeight="1">
+    <row r="4" spans="1:52" ht="269.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1270</v>
       </c>
@@ -24061,7 +24063,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:52" ht="240">
+    <row r="5" spans="1:52" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1271</v>
       </c>
@@ -24219,7 +24221,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="90">
+    <row r="6" spans="1:52" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1272</v>
       </c>
@@ -24377,7 +24379,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:52" ht="105">
+    <row r="7" spans="1:52" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>1273</v>
       </c>
@@ -24535,7 +24537,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:52" ht="150">
+    <row r="8" spans="1:52" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1355</v>
       </c>
@@ -24693,7 +24695,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="150">
+    <row r="9" spans="1:52" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1274</v>
       </c>
@@ -24851,7 +24853,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:52" ht="165">
+    <row r="10" spans="1:52" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1275</v>
       </c>
@@ -25009,7 +25011,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:52" ht="180">
+    <row r="11" spans="1:52" ht="180" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1276</v>
       </c>
@@ -25167,7 +25169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:52" ht="225">
+    <row r="12" spans="1:52" ht="225" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1277</v>
       </c>
@@ -25325,7 +25327,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:52" ht="240">
+    <row r="13" spans="1:52" ht="240" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>1278</v>
       </c>
@@ -25483,7 +25485,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:52" ht="240">
+    <row r="14" spans="1:52" ht="240" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1279</v>
       </c>
@@ -25641,7 +25643,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:52" ht="240">
+    <row r="15" spans="1:52" ht="240" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1280</v>
       </c>
@@ -25799,7 +25801,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:52" ht="240">
+    <row r="16" spans="1:52" ht="240" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1281</v>
       </c>
@@ -25957,7 +25959,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:52" ht="60">
+    <row r="17" spans="1:52" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1282</v>
       </c>
@@ -26115,7 +26117,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:52" ht="270">
+    <row r="18" spans="1:52" ht="270" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>1283</v>
       </c>
@@ -26273,7 +26275,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:52" ht="180">
+    <row r="19" spans="1:52" ht="180" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1284</v>
       </c>
@@ -26431,7 +26433,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:52" ht="120">
+    <row r="20" spans="1:52" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1285</v>
       </c>
@@ -26589,7 +26591,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:52" ht="120">
+    <row r="21" spans="1:52" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1286</v>
       </c>
@@ -26747,7 +26749,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:52" ht="165">
+    <row r="22" spans="1:52" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1287</v>
       </c>
@@ -26905,7 +26907,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:52" ht="210">
+    <row r="23" spans="1:52" ht="210" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1288</v>
       </c>
@@ -27063,7 +27065,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:52" ht="195">
+    <row r="24" spans="1:52" ht="195" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1289</v>
       </c>
@@ -27221,7 +27223,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:52" ht="180">
+    <row r="25" spans="1:52" ht="180" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>1290</v>
       </c>
@@ -27379,7 +27381,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:52" ht="150">
+    <row r="26" spans="1:52" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1291</v>
       </c>
@@ -27537,7 +27539,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:52" ht="165">
+    <row r="27" spans="1:52" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>1292</v>
       </c>
@@ -27695,7 +27697,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:52" ht="330">
+    <row r="28" spans="1:52" ht="330" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1293</v>
       </c>
@@ -27853,7 +27855,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:52" ht="105">
+    <row r="29" spans="1:52" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1294</v>
       </c>
@@ -28011,7 +28013,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:52" ht="195">
+    <row r="30" spans="1:52" ht="195" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1295</v>
       </c>
@@ -28169,7 +28171,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:52" ht="195">
+    <row r="31" spans="1:52" ht="195" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>1296</v>
       </c>
@@ -28327,7 +28329,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:52" ht="120">
+    <row r="32" spans="1:52" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1297</v>
       </c>
@@ -28485,7 +28487,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:52" ht="135">
+    <row r="33" spans="1:52" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1298</v>
       </c>
@@ -28643,7 +28645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:52" ht="135">
+    <row r="34" spans="1:52" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1299</v>
       </c>
@@ -28801,7 +28803,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:52" ht="135">
+    <row r="35" spans="1:52" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>1300</v>
       </c>
@@ -28959,7 +28961,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:52" ht="135">
+    <row r="36" spans="1:52" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1301</v>
       </c>
@@ -29117,7 +29119,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:52" ht="150">
+    <row r="37" spans="1:52" ht="150" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>1302</v>
       </c>
@@ -29275,7 +29277,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:52" ht="150">
+    <row r="38" spans="1:52" ht="150" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>1303</v>
       </c>
@@ -29433,7 +29435,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:52" ht="90">
+    <row r="39" spans="1:52" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1304</v>
       </c>
@@ -29591,7 +29593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:52" ht="150">
+    <row r="40" spans="1:52" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>1305</v>
       </c>
@@ -29749,7 +29751,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:52" ht="150">
+    <row r="41" spans="1:52" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>1306</v>
       </c>
@@ -29907,7 +29909,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:52" ht="150">
+    <row r="42" spans="1:52" ht="150" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>1307</v>
       </c>
@@ -30065,7 +30067,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:52" ht="150">
+    <row r="43" spans="1:52" ht="150" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>1308</v>
       </c>
@@ -30223,7 +30225,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:52" ht="150">
+    <row r="44" spans="1:52" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>1309</v>
       </c>
@@ -30381,7 +30383,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:52" ht="150">
+    <row r="45" spans="1:52" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>1310</v>
       </c>
@@ -30539,7 +30541,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:52" ht="150">
+    <row r="46" spans="1:52" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>1311</v>
       </c>
@@ -30697,7 +30699,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:52" ht="150">
+    <row r="47" spans="1:52" ht="150" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>1312</v>
       </c>
@@ -30855,7 +30857,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:52" ht="150">
+    <row r="48" spans="1:52" ht="150" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1313</v>
       </c>
@@ -31013,7 +31015,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:52" ht="90" customHeight="1">
+    <row r="49" spans="1:52" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>1439</v>
       </c>
@@ -31171,7 +31173,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="50" spans="1:52" ht="75" customHeight="1">
+    <row r="50" spans="1:52" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>1314</v>
       </c>
@@ -31329,7 +31331,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:52" ht="120" customHeight="1">
+    <row r="51" spans="1:52" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>1356</v>
       </c>
@@ -31487,7 +31489,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:52" ht="210" customHeight="1">
+    <row r="52" spans="1:52" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>1350</v>
       </c>
@@ -31645,7 +31647,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:52" ht="120" customHeight="1">
+    <row r="53" spans="1:52" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>1438</v>
       </c>
@@ -31803,7 +31805,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:52" ht="180" customHeight="1">
+    <row r="54" spans="1:52" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>1315</v>
       </c>
@@ -31961,7 +31963,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:52" ht="180">
+    <row r="55" spans="1:52" ht="180" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>1316</v>
       </c>
@@ -32119,7 +32121,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:52" ht="75">
+    <row r="56" spans="1:52" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>1351</v>
       </c>
@@ -32277,7 +32279,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:52" ht="225">
+    <row r="57" spans="1:52" ht="225" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
         <v>1380</v>
       </c>
@@ -32435,7 +32437,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:52" ht="165">
+    <row r="58" spans="1:52" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>1390</v>
       </c>
@@ -32593,7 +32595,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:52" ht="195">
+    <row r="59" spans="1:52" ht="195" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>1352</v>
       </c>
@@ -32751,7 +32753,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:52" ht="135">
+    <row r="60" spans="1:52" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>1317</v>
       </c>
@@ -32909,7 +32911,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:52" ht="210">
+    <row r="61" spans="1:52" ht="210" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>1318</v>
       </c>
@@ -33067,7 +33069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:52" ht="150">
+    <row r="62" spans="1:52" ht="150" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>1319</v>
       </c>
@@ -33225,7 +33227,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:52" ht="105">
+    <row r="63" spans="1:52" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>1353</v>
       </c>
@@ -33390,7 +33392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:52" ht="120">
+    <row r="64" spans="1:52" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>1320</v>
       </c>
@@ -33548,7 +33550,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:52" ht="150">
+    <row r="65" spans="1:52" ht="150" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>1321</v>
       </c>
@@ -33706,7 +33708,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:52" ht="105">
+    <row r="66" spans="1:52" ht="105" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>1322</v>
       </c>
@@ -33864,7 +33866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:52" ht="75">
+    <row r="67" spans="1:52" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>1323</v>
       </c>
@@ -34022,7 +34024,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:52" ht="75">
+    <row r="68" spans="1:52" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>1324</v>
       </c>
@@ -34180,7 +34182,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:52" ht="105">
+    <row r="69" spans="1:52" ht="105" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>1325</v>
       </c>
@@ -34338,7 +34340,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:52" ht="105">
+    <row r="70" spans="1:52" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>1326</v>
       </c>
@@ -34496,7 +34498,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:52" ht="135">
+    <row r="71" spans="1:52" ht="135" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>1327</v>
       </c>
@@ -34654,7 +34656,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:52" ht="120">
+    <row r="72" spans="1:52" ht="120" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>1328</v>
       </c>
@@ -34812,7 +34814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:52" ht="105">
+    <row r="73" spans="1:52" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>1329</v>
       </c>
@@ -34970,7 +34972,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:52" ht="135">
+    <row r="74" spans="1:52" ht="135" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>1330</v>
       </c>
@@ -35128,7 +35130,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:52" ht="90">
+    <row r="75" spans="1:52" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>1331</v>
       </c>
@@ -35286,7 +35288,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:52" ht="135">
+    <row r="76" spans="1:52" ht="135" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>1332</v>
       </c>
@@ -35444,7 +35446,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:52" ht="150">
+    <row r="77" spans="1:52" ht="150" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>1333</v>
       </c>
@@ -35602,7 +35604,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:52" ht="90">
+    <row r="78" spans="1:52" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>1334</v>
       </c>
@@ -35760,7 +35762,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:52" ht="81.75" customHeight="1">
+    <row r="79" spans="1:52" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
         <v>1411</v>
       </c>
@@ -35918,7 +35920,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:52" ht="90">
+    <row r="80" spans="1:52" ht="90" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>1335</v>
       </c>
@@ -36076,7 +36078,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:52" ht="135">
+    <row r="81" spans="1:52" ht="135" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>1336</v>
       </c>
@@ -36234,7 +36236,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:52" ht="45">
+    <row r="82" spans="1:52" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>1269</v>
       </c>
@@ -36392,7 +36394,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:52" ht="75">
+    <row r="83" spans="1:52" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>1354</v>
       </c>
@@ -36550,7 +36552,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:52" ht="90">
+    <row r="84" spans="1:52" ht="90" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>1337</v>
       </c>
@@ -36708,7 +36710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:52" ht="90">
+    <row r="85" spans="1:52" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>1338</v>
       </c>
@@ -36866,7 +36868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:52" ht="90">
+    <row r="86" spans="1:52" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>1339</v>
       </c>
@@ -37024,7 +37026,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:52" ht="165">
+    <row r="87" spans="1:52" ht="165" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>1340</v>
       </c>
@@ -37182,7 +37184,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:52" ht="90">
+    <row r="88" spans="1:52" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>1341</v>
       </c>
@@ -37340,7 +37342,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:52" ht="105">
+    <row r="89" spans="1:52" ht="105" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>1342</v>
       </c>
@@ -37498,7 +37500,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:52" ht="105">
+    <row r="90" spans="1:52" ht="105" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>1343</v>
       </c>
@@ -37656,7 +37658,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:52" ht="105">
+    <row r="91" spans="1:52" ht="105" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>1344</v>
       </c>
@@ -37814,7 +37816,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:52" ht="90">
+    <row r="92" spans="1:52" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1345</v>
       </c>
@@ -37972,7 +37974,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:52" ht="147.94999999999999" customHeight="1">
+    <row r="93" spans="1:52" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>1346</v>
       </c>
@@ -38130,7 +38132,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:52" ht="75">
+    <row r="94" spans="1:52" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>1347</v>
       </c>
@@ -38288,7 +38290,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:52" ht="315">
+    <row r="95" spans="1:52" ht="315" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>1348</v>
       </c>
@@ -38446,7 +38448,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:52" ht="60">
+    <row r="96" spans="1:52" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>1349</v>
       </c>
